--- a/raw_data/20200818_saline/20200818_Sensor1_Test_52.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_52.xlsx
@@ -1,885 +1,1301 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B8CAB0-905F-423C-AC8F-BE06B927F028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>46086.961959</v>
       </c>
       <c r="B2" s="1">
-        <v>12.801934</v>
+        <v>12.801933999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>902.390000</v>
+        <v>902.39</v>
       </c>
       <c r="D2" s="1">
-        <v>-179.322000</v>
+        <v>-179.322</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>46097.360088</v>
+        <v>46097.360088000001</v>
       </c>
       <c r="G2" s="1">
         <v>12.804822</v>
       </c>
       <c r="H2" s="1">
-        <v>917.438000</v>
+        <v>917.43799999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-154.164000</v>
+        <v>-154.16399999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>46107.797936</v>
+        <v>46107.797936000003</v>
       </c>
       <c r="L2" s="1">
         <v>12.807722</v>
       </c>
       <c r="M2" s="1">
-        <v>939.482000</v>
+        <v>939.48199999999997</v>
       </c>
       <c r="N2" s="1">
-        <v>-113.272000</v>
+        <v>-113.27200000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>46118.313084</v>
+        <v>46118.313084000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>12.810643</v>
+        <v>12.810643000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>946.872000</v>
+        <v>946.87199999999996</v>
       </c>
       <c r="S2" s="1">
-        <v>-99.371100</v>
+        <v>-99.371099999999998</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>46128.873447</v>
+        <v>46128.873446999998</v>
       </c>
       <c r="V2" s="1">
-        <v>12.813576</v>
+        <v>12.813575999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>954.318000</v>
+        <v>954.31799999999998</v>
       </c>
       <c r="X2" s="1">
-        <v>-86.315300</v>
+        <v>-86.315299999999993</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>46139.618242</v>
+        <v>46139.618241999997</v>
       </c>
       <c r="AA2" s="1">
         <v>12.816561</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.565000</v>
+        <v>962.56500000000005</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.002500</v>
+        <v>-76.002499999999998</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>46150.173138</v>
+        <v>46150.173137999998</v>
       </c>
       <c r="AF2" s="1">
         <v>12.819493</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.749000</v>
+        <v>967.74900000000002</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.426000</v>
+        <v>-74.426000000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>46160.593060</v>
+        <v>46160.593059999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>12.822387</v>
+        <v>12.822387000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.391000</v>
+        <v>975.39099999999996</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.522600</v>
+        <v>-79.522599999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>46170.793287</v>
       </c>
       <c r="AP2" s="1">
-        <v>12.825220</v>
+        <v>12.82522</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.666000</v>
+        <v>983.66600000000005</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.356500</v>
+        <v>-91.356499999999997</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>46181.890813</v>
+        <v>46181.890812999998</v>
       </c>
       <c r="AU2" s="1">
         <v>12.828303</v>
       </c>
       <c r="AV2" s="1">
-        <v>993.640000</v>
+        <v>993.64</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.226000</v>
+        <v>-109.226</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>46192.873690</v>
+        <v>46192.87369</v>
       </c>
       <c r="AZ2" s="1">
-        <v>12.831354</v>
+        <v>12.831353999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1001.960000</v>
+        <v>1001.96</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.976000</v>
+        <v>-124.976</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>46203.624477</v>
+        <v>46203.624476999998</v>
       </c>
       <c r="BE2" s="1">
-        <v>12.834340</v>
+        <v>12.834339999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1040.740000</v>
+        <v>1040.74</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.372000</v>
+        <v>-197.37200000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>46214.280526</v>
+        <v>46214.280526000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>12.837300</v>
+        <v>12.837300000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1107.540000</v>
+        <v>1107.54</v>
       </c>
       <c r="BL2" s="1">
-        <v>-314.912000</v>
+        <v>-314.91199999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>46225.358175</v>
+        <v>46225.358175000001</v>
       </c>
       <c r="BO2" s="1">
         <v>12.840377</v>
       </c>
       <c r="BP2" s="1">
-        <v>1216.010000</v>
+        <v>1216.01</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-500.391000</v>
+        <v>-500.39100000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>46236.943233</v>
+        <v>46236.943232999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>12.843595</v>
+        <v>12.843595000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1337.870000</v>
+        <v>1337.87</v>
       </c>
       <c r="BV2" s="1">
-        <v>-704.396000</v>
+        <v>-704.39599999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>46247.627553</v>
+        <v>46247.627552999998</v>
       </c>
       <c r="BY2" s="1">
         <v>12.846563</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1474.870000</v>
+        <v>1474.87</v>
       </c>
       <c r="CA2" s="1">
-        <v>-921.491000</v>
+        <v>-921.49099999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>46258.862932</v>
+        <v>46258.862932000004</v>
       </c>
       <c r="CD2" s="1">
         <v>12.849684</v>
       </c>
       <c r="CE2" s="1">
-        <v>1834.590000</v>
+        <v>1834.59</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1439.070000</v>
+        <v>-1439.07</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>46087.329991</v>
+        <v>46087.329990999999</v>
       </c>
       <c r="B3" s="1">
-        <v>12.802036</v>
+        <v>12.802035999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>902.438000</v>
+        <v>902.43799999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-179.378000</v>
+        <v>-179.37799999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>46097.727129</v>
+        <v>46097.727128999999</v>
       </c>
       <c r="G3" s="1">
         <v>12.804924</v>
       </c>
       <c r="H3" s="1">
-        <v>917.108000</v>
+        <v>917.10799999999995</v>
       </c>
       <c r="I3" s="1">
-        <v>-153.862000</v>
+        <v>-153.86199999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>46108.178869</v>
+        <v>46108.178869000003</v>
       </c>
       <c r="L3" s="1">
         <v>12.807827</v>
       </c>
       <c r="M3" s="1">
-        <v>939.636000</v>
+        <v>939.63599999999997</v>
       </c>
       <c r="N3" s="1">
-        <v>-113.175000</v>
+        <v>-113.175</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>46119.041707</v>
+        <v>46119.041706999997</v>
       </c>
       <c r="Q3" s="1">
         <v>12.810845</v>
       </c>
       <c r="R3" s="1">
-        <v>946.923000</v>
+        <v>946.923</v>
       </c>
       <c r="S3" s="1">
-        <v>-99.329100</v>
+        <v>-99.329099999999997</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>46129.589166</v>
+        <v>46129.589165999998</v>
       </c>
       <c r="V3" s="1">
         <v>12.813775</v>
       </c>
       <c r="W3" s="1">
-        <v>954.516000</v>
+        <v>954.51599999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-86.373200</v>
+        <v>-86.373199999999997</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>46139.972384</v>
+        <v>46139.972384000001</v>
       </c>
       <c r="AA3" s="1">
         <v>12.816659</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.684000</v>
+        <v>962.68399999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.083900</v>
+        <v>-76.0839</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>46150.521334</v>
+        <v>46150.521333999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>12.819589</v>
+        <v>12.819589000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.764000</v>
+        <v>967.76400000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.447500</v>
+        <v>-74.447500000000005</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>46160.945256</v>
+        <v>46160.945255999999</v>
       </c>
       <c r="AK3" s="1">
         <v>12.822485</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.395000</v>
+        <v>975.39499999999998</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.489200</v>
+        <v>-79.489199999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>46171.498632</v>
+        <v>46171.498632000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>12.825416</v>
+        <v>12.825416000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>983.670000</v>
+        <v>983.67</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.341200</v>
+        <v>-91.341200000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>46182.344646</v>
+        <v>46182.344645999998</v>
       </c>
       <c r="AU3" s="1">
         <v>12.828429</v>
       </c>
       <c r="AV3" s="1">
-        <v>993.643000</v>
+        <v>993.64300000000003</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.216000</v>
+        <v>-109.21599999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>46193.313145</v>
@@ -888,180 +1304,180 @@
         <v>12.831476</v>
       </c>
       <c r="BA3" s="1">
-        <v>1001.950000</v>
+        <v>1001.95</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.981000</v>
+        <v>-124.98099999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>46203.984603</v>
+        <v>46203.984602999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>12.834440</v>
+        <v>12.834440000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1040.730000</v>
+        <v>1040.73</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.399000</v>
+        <v>-197.399</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>46214.663765</v>
+        <v>46214.663764999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>12.837407</v>
+        <v>12.837407000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1107.540000</v>
+        <v>1107.54</v>
       </c>
       <c r="BL3" s="1">
-        <v>-314.918000</v>
+        <v>-314.91800000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>46225.798126</v>
+        <v>46225.798126000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>12.840499</v>
+        <v>12.840498999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1216.010000</v>
+        <v>1216.01</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-500.369000</v>
+        <v>-500.36900000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>46237.405503</v>
+        <v>46237.405503000002</v>
       </c>
       <c r="BT3" s="1">
         <v>12.843724</v>
       </c>
       <c r="BU3" s="1">
-        <v>1337.910000</v>
+        <v>1337.91</v>
       </c>
       <c r="BV3" s="1">
-        <v>-704.462000</v>
+        <v>-704.46199999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>46248.098755</v>
+        <v>46248.098754999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>12.846694</v>
+        <v>12.846693999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1474.800000</v>
+        <v>1474.8</v>
       </c>
       <c r="CA3" s="1">
-        <v>-921.474000</v>
+        <v>-921.47400000000005</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>46259.155570</v>
+        <v>46259.155570000003</v>
       </c>
       <c r="CD3" s="1">
         <v>12.849765</v>
       </c>
       <c r="CE3" s="1">
-        <v>1834.850000</v>
+        <v>1834.85</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1437.730000</v>
+        <v>-1437.73</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>46087.678677</v>
+        <v>46087.678677000004</v>
       </c>
       <c r="B4" s="1">
         <v>12.802133</v>
       </c>
       <c r="C4" s="1">
-        <v>902.370000</v>
+        <v>902.37</v>
       </c>
       <c r="D4" s="1">
-        <v>-179.509000</v>
+        <v>-179.50899999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>46098.071351</v>
+        <v>46098.071350999999</v>
       </c>
       <c r="G4" s="1">
-        <v>12.805020</v>
+        <v>12.805020000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>917.612000</v>
+        <v>917.61199999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-153.606000</v>
+        <v>-153.60599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>46108.871241</v>
+        <v>46108.871241000001</v>
       </c>
       <c r="L4" s="1">
-        <v>12.808020</v>
+        <v>12.808020000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>939.546000</v>
+        <v>939.54600000000005</v>
       </c>
       <c r="N4" s="1">
-        <v>-113.201000</v>
+        <v>-113.20099999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>46119.390891</v>
+        <v>46119.390891000003</v>
       </c>
       <c r="Q4" s="1">
-        <v>12.810942</v>
+        <v>12.810942000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>946.909000</v>
+        <v>946.90899999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-99.343200</v>
+        <v>-99.343199999999996</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>46129.931409</v>
+        <v>46129.931408999997</v>
       </c>
       <c r="V4" s="1">
-        <v>12.813870</v>
+        <v>12.81387</v>
       </c>
       <c r="W4" s="1">
-        <v>954.313000</v>
+        <v>954.31299999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-86.285900</v>
+        <v>-86.285899999999998</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>46140.320086</v>
@@ -1070,88 +1486,88 @@
         <v>12.816756</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.690000</v>
+        <v>962.69</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.117600</v>
+        <v>-76.117599999999996</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>46151.172050</v>
+        <v>46151.172050000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>12.819770</v>
+        <v>12.81977</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.785000</v>
+        <v>967.78499999999997</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.396600</v>
+        <v>-74.396600000000007</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>46161.595972</v>
+        <v>46161.595972000003</v>
       </c>
       <c r="AK4" s="1">
         <v>12.822666</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.378000</v>
+        <v>975.37800000000004</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.542900</v>
+        <v>-79.542900000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>46171.911765</v>
+        <v>46171.911764999997</v>
       </c>
       <c r="AP4" s="1">
         <v>12.825531</v>
       </c>
       <c r="AQ4" s="1">
-        <v>983.692000</v>
+        <v>983.69200000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.339700</v>
+        <v>-91.339699999999993</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>46182.624359</v>
+        <v>46182.624359000001</v>
       </c>
       <c r="AU4" s="1">
         <v>12.828507</v>
       </c>
       <c r="AV4" s="1">
-        <v>993.642000</v>
+        <v>993.64200000000005</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.219000</v>
+        <v>-109.21899999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>46193.671257</v>
+        <v>46193.671257000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>12.831575</v>
+        <v>12.831575000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1001.960000</v>
+        <v>1001.96</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.990000</v>
+        <v>-124.99</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>46204.347147</v>
@@ -1160,315 +1576,315 @@
         <v>12.834541</v>
       </c>
       <c r="BF4" s="1">
-        <v>1040.740000</v>
+        <v>1040.74</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.384000</v>
+        <v>-197.38399999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>46215.033454</v>
+        <v>46215.033453999997</v>
       </c>
       <c r="BJ4" s="1">
-        <v>12.837509</v>
+        <v>12.837509000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1107.530000</v>
+        <v>1107.53</v>
       </c>
       <c r="BL4" s="1">
-        <v>-314.908000</v>
+        <v>-314.90800000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>46226.219758</v>
+        <v>46226.219757999999</v>
       </c>
       <c r="BO4" s="1">
         <v>12.840617</v>
       </c>
       <c r="BP4" s="1">
-        <v>1216.010000</v>
+        <v>1216.01</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-500.365000</v>
+        <v>-500.36500000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>46237.835039</v>
+        <v>46237.835038999998</v>
       </c>
       <c r="BT4" s="1">
         <v>12.843843</v>
       </c>
       <c r="BU4" s="1">
-        <v>1338.040000</v>
+        <v>1338.04</v>
       </c>
       <c r="BV4" s="1">
-        <v>-704.479000</v>
+        <v>-704.47900000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>46248.552628</v>
+        <v>46248.552627999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>12.846820</v>
+        <v>12.846819999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1474.820000</v>
+        <v>1474.82</v>
       </c>
       <c r="CA4" s="1">
-        <v>-921.553000</v>
+        <v>-921.553</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>46259.677363</v>
+        <v>46259.677363000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>12.849910</v>
+        <v>12.849909999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1833.620000</v>
+        <v>1833.62</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1437.710000</v>
+        <v>-1437.71</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>46088.358305</v>
+        <v>46088.358305000002</v>
       </c>
       <c r="B5" s="1">
         <v>12.802322</v>
       </c>
       <c r="C5" s="1">
-        <v>902.504000</v>
+        <v>902.50400000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-179.331000</v>
+        <v>-179.33099999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>46098.762776</v>
+        <v>46098.762776000003</v>
       </c>
       <c r="G5" s="1">
-        <v>12.805212</v>
+        <v>12.805211999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>917.191000</v>
+        <v>917.19100000000003</v>
       </c>
       <c r="I5" s="1">
-        <v>-154.417000</v>
+        <v>-154.417</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>46109.212490</v>
+        <v>46109.212489999998</v>
       </c>
       <c r="L5" s="1">
-        <v>12.808115</v>
+        <v>12.808115000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>939.678000</v>
+        <v>939.678</v>
       </c>
       <c r="N5" s="1">
-        <v>-113.139000</v>
+        <v>-113.139</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>46119.737630</v>
+        <v>46119.737630000003</v>
       </c>
       <c r="Q5" s="1">
         <v>12.811038</v>
       </c>
       <c r="R5" s="1">
-        <v>946.923000</v>
+        <v>946.923</v>
       </c>
       <c r="S5" s="1">
-        <v>-99.390600</v>
+        <v>-99.390600000000006</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>46130.274110</v>
+        <v>46130.274109999998</v>
       </c>
       <c r="V5" s="1">
         <v>12.813965</v>
       </c>
       <c r="W5" s="1">
-        <v>954.507000</v>
+        <v>954.50699999999995</v>
       </c>
       <c r="X5" s="1">
-        <v>-86.412800</v>
+        <v>-86.412800000000004</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>46140.986207</v>
+        <v>46140.986207000002</v>
       </c>
       <c r="AA5" s="1">
         <v>12.816941</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.623000</v>
+        <v>962.62300000000005</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.121500</v>
+        <v>-76.121499999999997</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>46151.549039</v>
+        <v>46151.549038999998</v>
       </c>
       <c r="AF5" s="1">
         <v>12.819875</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.793000</v>
+        <v>967.79300000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.446000</v>
+        <v>-74.445999999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>46161.987812</v>
+        <v>46161.987811999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>12.822774</v>
+        <v>12.822774000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.413000</v>
+        <v>975.41300000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.511500</v>
+        <v>-79.511499999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>46172.299637</v>
+        <v>46172.299636999996</v>
       </c>
       <c r="AP5" s="1">
-        <v>12.825639</v>
+        <v>12.825639000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.652000</v>
+        <v>983.65200000000004</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.313900</v>
+        <v>-91.313900000000004</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>46182.988455</v>
+        <v>46182.988454999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>12.828608</v>
+        <v>12.828607999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>993.615000</v>
+        <v>993.61500000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.205000</v>
+        <v>-109.205</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>46194.029866</v>
+        <v>46194.029865999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>12.831675</v>
+        <v>12.831675000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1001.950000</v>
+        <v>1001.95</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.978000</v>
+        <v>-124.97799999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>46204.769243</v>
+        <v>46204.769243000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>12.834658</v>
+        <v>12.834657999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1040.750000</v>
+        <v>1040.75</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.410000</v>
+        <v>-197.41</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>46215.803776</v>
+        <v>46215.803776000001</v>
       </c>
       <c r="BJ5" s="1">
         <v>12.837723</v>
       </c>
       <c r="BK5" s="1">
-        <v>1107.530000</v>
+        <v>1107.53</v>
       </c>
       <c r="BL5" s="1">
-        <v>-314.916000</v>
+        <v>-314.916</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>46226.617549</v>
+        <v>46226.617549000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>12.840727</v>
+        <v>12.840726999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1216.000000</v>
+        <v>1216</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-500.424000</v>
+        <v>-500.42399999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>46238.249725</v>
+        <v>46238.249725000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>12.843958</v>
+        <v>12.843958000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1338.180000</v>
+        <v>1338.18</v>
       </c>
       <c r="BV5" s="1">
-        <v>-704.542000</v>
+        <v>-704.54200000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>46249.000516</v>
@@ -1477,317 +1893,317 @@
         <v>12.846945</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1474.900000</v>
+        <v>1474.9</v>
       </c>
       <c r="CA5" s="1">
-        <v>-921.603000</v>
+        <v>-921.60299999999995</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>46260.218030</v>
+        <v>46260.218030000004</v>
       </c>
       <c r="CD5" s="1">
         <v>12.850061</v>
       </c>
       <c r="CE5" s="1">
-        <v>1834.790000</v>
+        <v>1834.79</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1437.540000</v>
+        <v>-1437.54</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>46088.701923</v>
+        <v>46088.701923000001</v>
       </c>
       <c r="B6" s="1">
         <v>12.802417</v>
       </c>
       <c r="C6" s="1">
-        <v>902.447000</v>
+        <v>902.447</v>
       </c>
       <c r="D6" s="1">
-        <v>-179.302000</v>
+        <v>-179.30199999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>46099.108982</v>
+        <v>46099.108981999998</v>
       </c>
       <c r="G6" s="1">
         <v>12.805308</v>
       </c>
       <c r="H6" s="1">
-        <v>917.517000</v>
+        <v>917.51700000000005</v>
       </c>
       <c r="I6" s="1">
-        <v>-153.610000</v>
+        <v>-153.61000000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>46109.561672</v>
+        <v>46109.561672000003</v>
       </c>
       <c r="L6" s="1">
-        <v>12.808212</v>
+        <v>12.808211999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>939.542000</v>
+        <v>939.54200000000003</v>
       </c>
       <c r="N6" s="1">
-        <v>-113.228000</v>
+        <v>-113.22799999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>46120.393803</v>
+        <v>46120.393802999999</v>
       </c>
       <c r="Q6" s="1">
         <v>12.811221</v>
       </c>
       <c r="R6" s="1">
-        <v>946.887000</v>
+        <v>946.88699999999994</v>
       </c>
       <c r="S6" s="1">
-        <v>-99.370000</v>
+        <v>-99.37</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>46130.937259</v>
+        <v>46130.937258999998</v>
       </c>
       <c r="V6" s="1">
         <v>12.814149</v>
       </c>
       <c r="W6" s="1">
-        <v>954.436000</v>
+        <v>954.43600000000004</v>
       </c>
       <c r="X6" s="1">
-        <v>-86.319200</v>
+        <v>-86.319199999999995</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>46141.363662</v>
+        <v>46141.363662000003</v>
       </c>
       <c r="AA6" s="1">
         <v>12.817045</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.646000</v>
+        <v>962.64599999999996</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.085000</v>
+        <v>-76.084999999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>46151.896240</v>
+        <v>46151.896240000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>12.819971</v>
+        <v>12.819971000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.785000</v>
+        <v>967.78499999999997</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.441500</v>
+        <v>-74.441500000000005</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>46162.338022</v>
+        <v>46162.338022000004</v>
       </c>
       <c r="AK6" s="1">
         <v>12.822872</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.373000</v>
+        <v>975.37300000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.505700</v>
+        <v>-79.505700000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>46172.679605</v>
+        <v>46172.679604999998</v>
       </c>
       <c r="AP6" s="1">
         <v>12.825744</v>
       </c>
       <c r="AQ6" s="1">
-        <v>983.655000</v>
+        <v>983.65499999999997</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.338000</v>
+        <v>-91.337999999999994</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>46183.423910</v>
+        <v>46183.423909999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>12.828729</v>
+        <v>12.828728999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>993.639000</v>
+        <v>993.63900000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.217000</v>
+        <v>-109.217</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>46194.449481</v>
+        <v>46194.449481000003</v>
       </c>
       <c r="AZ6" s="1">
         <v>12.831792</v>
       </c>
       <c r="BA6" s="1">
-        <v>1001.950000</v>
+        <v>1001.95</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.974000</v>
+        <v>-124.974</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>46205.067339</v>
+        <v>46205.067339000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>12.834741</v>
+        <v>12.834740999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1040.750000</v>
+        <v>1040.75</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.397000</v>
+        <v>-197.39699999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>46216.179212</v>
+        <v>46216.179212000003</v>
       </c>
       <c r="BJ6" s="1">
         <v>12.837828</v>
       </c>
       <c r="BK6" s="1">
-        <v>1107.520000</v>
+        <v>1107.52</v>
       </c>
       <c r="BL6" s="1">
-        <v>-314.967000</v>
+        <v>-314.96699999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>46227.017820</v>
+        <v>46227.017820000001</v>
       </c>
       <c r="BO6" s="1">
         <v>12.840838</v>
       </c>
       <c r="BP6" s="1">
-        <v>1216.030000</v>
+        <v>1216.03</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-500.401000</v>
+        <v>-500.40100000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>46238.679229</v>
+        <v>46238.679229000001</v>
       </c>
       <c r="BT6" s="1">
         <v>12.844078</v>
       </c>
       <c r="BU6" s="1">
-        <v>1338.220000</v>
+        <v>1338.22</v>
       </c>
       <c r="BV6" s="1">
-        <v>-704.516000</v>
+        <v>-704.51599999999996</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>46249.456335</v>
+        <v>46249.456335000003</v>
       </c>
       <c r="BY6" s="1">
         <v>12.847071</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1474.930000</v>
+        <v>1474.93</v>
       </c>
       <c r="CA6" s="1">
-        <v>-921.560000</v>
+        <v>-921.56</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>46260.746771</v>
+        <v>46260.746770999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>12.850207</v>
+        <v>12.850206999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1833.450000</v>
+        <v>1833.45</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1438.350000</v>
+        <v>-1438.35</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>46089.047143</v>
+        <v>46089.047143000003</v>
       </c>
       <c r="B7" s="1">
-        <v>12.802513</v>
+        <v>12.802512999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>902.541000</v>
+        <v>902.54100000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>-179.380000</v>
+        <v>-179.38</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>46099.450229</v>
+        <v>46099.450229000002</v>
       </c>
       <c r="G7" s="1">
         <v>12.805403</v>
       </c>
       <c r="H7" s="1">
-        <v>917.141000</v>
+        <v>917.14099999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-154.149000</v>
+        <v>-154.149</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>46110.227304</v>
@@ -1796,43 +2212,43 @@
         <v>12.808396</v>
       </c>
       <c r="M7" s="1">
-        <v>939.481000</v>
+        <v>939.48099999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-113.053000</v>
+        <v>-113.053</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>46120.784649</v>
+        <v>46120.784649000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>12.811329</v>
+        <v>12.811329000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>946.891000</v>
+        <v>946.89099999999996</v>
       </c>
       <c r="S7" s="1">
-        <v>-99.369600</v>
+        <v>-99.369600000000005</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>46131.311243</v>
+        <v>46131.311242999996</v>
       </c>
       <c r="V7" s="1">
-        <v>12.814253</v>
+        <v>12.814253000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>954.483000</v>
+        <v>954.48299999999995</v>
       </c>
       <c r="X7" s="1">
-        <v>-86.357800</v>
+        <v>-86.357799999999997</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>46141.710367</v>
@@ -1841,181 +2257,181 @@
         <v>12.817142</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.592000</v>
+        <v>962.59199999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.072000</v>
+        <v>-76.072000000000003</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>46152.239439</v>
+        <v>46152.239438999997</v>
       </c>
       <c r="AF7" s="1">
         <v>12.820067</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.804000</v>
+        <v>967.80399999999997</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.411900</v>
+        <v>-74.411900000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>46162.685195</v>
+        <v>46162.685194999998</v>
       </c>
       <c r="AK7" s="1">
-        <v>12.822968</v>
+        <v>12.822967999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.384000</v>
+        <v>975.38400000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.530400</v>
+        <v>-79.5304</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>46173.100974</v>
+        <v>46173.100974000001</v>
       </c>
       <c r="AP7" s="1">
         <v>12.825861</v>
       </c>
       <c r="AQ7" s="1">
-        <v>983.656000</v>
+        <v>983.65599999999995</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.327900</v>
+        <v>-91.3279</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>46183.716067</v>
+        <v>46183.716067000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>12.828810</v>
+        <v>12.828810000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>993.634000</v>
+        <v>993.63400000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.214000</v>
+        <v>-109.214</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>46194.747608</v>
+        <v>46194.747607999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>12.831874</v>
+        <v>12.831873999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1001.960000</v>
+        <v>1001.96</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.994000</v>
+        <v>-124.994</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>46205.428426</v>
+        <v>46205.428425999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>12.834841</v>
+        <v>12.834841000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1040.760000</v>
+        <v>1040.76</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.408000</v>
+        <v>-197.40799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>46216.555178</v>
+        <v>46216.555178000002</v>
       </c>
       <c r="BJ7" s="1">
         <v>12.837932</v>
       </c>
       <c r="BK7" s="1">
-        <v>1107.520000</v>
+        <v>1107.52</v>
       </c>
       <c r="BL7" s="1">
-        <v>-314.973000</v>
+        <v>-314.97300000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>46227.437901</v>
+        <v>46227.437900999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>12.840955</v>
+        <v>12.840954999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1216.020000</v>
+        <v>1216.02</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-500.456000</v>
+        <v>-500.45600000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>46239.110754</v>
+        <v>46239.110754000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>12.844197</v>
+        <v>12.844196999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1338.320000</v>
+        <v>1338.32</v>
       </c>
       <c r="BV7" s="1">
-        <v>-704.449000</v>
+        <v>-704.44899999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>46249.893775</v>
+        <v>46249.893774999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>12.847193</v>
+        <v>12.847193000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1474.860000</v>
+        <v>1474.86</v>
       </c>
       <c r="CA7" s="1">
-        <v>-921.540000</v>
+        <v>-921.54</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>46261.265056</v>
+        <v>46261.265055999997</v>
       </c>
       <c r="CD7" s="1">
         <v>12.850351</v>
       </c>
       <c r="CE7" s="1">
-        <v>1833.560000</v>
+        <v>1833.56</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1437.860000</v>
+        <v>-1437.86</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>46089.702889</v>
       </c>
@@ -2023,405 +2439,405 @@
         <v>12.802695</v>
       </c>
       <c r="C8" s="1">
-        <v>902.230000</v>
+        <v>902.23</v>
       </c>
       <c r="D8" s="1">
-        <v>-179.521000</v>
+        <v>-179.52099999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>46100.108420</v>
+        <v>46100.108419999997</v>
       </c>
       <c r="G8" s="1">
         <v>12.805586</v>
       </c>
       <c r="H8" s="1">
-        <v>917.941000</v>
+        <v>917.94100000000003</v>
       </c>
       <c r="I8" s="1">
-        <v>-154.241000</v>
+        <v>-154.24100000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>46110.595832</v>
+        <v>46110.595831999999</v>
       </c>
       <c r="L8" s="1">
-        <v>12.808499</v>
+        <v>12.808498999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>939.503000</v>
+        <v>939.50300000000004</v>
       </c>
       <c r="N8" s="1">
-        <v>-113.202000</v>
+        <v>-113.202</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>46121.132377</v>
+        <v>46121.132377000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>12.811426</v>
+        <v>12.811426000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>946.890000</v>
+        <v>946.89</v>
       </c>
       <c r="S8" s="1">
-        <v>-99.338400</v>
+        <v>-99.338399999999993</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>46131.659933</v>
+        <v>46131.659933000003</v>
       </c>
       <c r="V8" s="1">
-        <v>12.814350</v>
+        <v>12.814349999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>954.311000</v>
+        <v>954.31100000000004</v>
       </c>
       <c r="X8" s="1">
-        <v>-86.405800</v>
+        <v>-86.405799999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>46142.061069</v>
+        <v>46142.061069000003</v>
       </c>
       <c r="AA8" s="1">
-        <v>12.817239</v>
+        <v>12.817239000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.625000</v>
+        <v>962.625</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.109800</v>
+        <v>-76.109800000000007</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>46152.657071</v>
+        <v>46152.657071000001</v>
       </c>
       <c r="AF8" s="1">
         <v>12.820183</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.821000</v>
+        <v>967.82100000000003</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.383600</v>
+        <v>-74.383600000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>46163.108806</v>
+        <v>46163.108805999997</v>
       </c>
       <c r="AK8" s="1">
         <v>12.823086</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.384000</v>
+        <v>975.38400000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.519600</v>
+        <v>-79.519599999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>46173.396788</v>
+        <v>46173.396787999998</v>
       </c>
       <c r="AP8" s="1">
         <v>12.825944</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.664000</v>
+        <v>983.66399999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.346600</v>
+        <v>-91.346599999999995</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>46184.080147</v>
+        <v>46184.080147000001</v>
       </c>
       <c r="AU8" s="1">
         <v>12.828911</v>
       </c>
       <c r="AV8" s="1">
-        <v>993.650000</v>
+        <v>993.65</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.235000</v>
+        <v>-109.235</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>46195.107672</v>
+        <v>46195.107671999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>12.831974</v>
+        <v>12.831974000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1001.980000</v>
+        <v>1001.98</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.981000</v>
+        <v>-124.98099999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>46205.789018</v>
+        <v>46205.789018000003</v>
       </c>
       <c r="BE8" s="1">
-        <v>12.834941</v>
+        <v>12.834941000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1040.750000</v>
+        <v>1040.75</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.398000</v>
+        <v>-197.398</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>46217.330923</v>
+        <v>46217.330923000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>12.838147</v>
+        <v>12.838146999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1107.540000</v>
+        <v>1107.54</v>
       </c>
       <c r="BL8" s="1">
-        <v>-314.938000</v>
+        <v>-314.93799999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>46228.252364</v>
       </c>
       <c r="BO8" s="1">
-        <v>12.841181</v>
+        <v>12.841181000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1216.000000</v>
+        <v>1216</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-500.446000</v>
+        <v>-500.44600000000003</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>46239.520940</v>
+        <v>46239.520940000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>12.844311</v>
+        <v>12.844310999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1338.450000</v>
+        <v>1338.45</v>
       </c>
       <c r="BV8" s="1">
-        <v>-704.380000</v>
+        <v>-704.38</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>46250.326328</v>
+        <v>46250.326328000003</v>
       </c>
       <c r="BY8" s="1">
         <v>12.847313</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1474.910000</v>
+        <v>1474.91</v>
       </c>
       <c r="CA8" s="1">
-        <v>-921.672000</v>
+        <v>-921.67200000000003</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>46261.834959</v>
       </c>
       <c r="CD8" s="1">
-        <v>12.850510</v>
+        <v>12.85051</v>
       </c>
       <c r="CE8" s="1">
-        <v>1834.520000</v>
+        <v>1834.52</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1437.700000</v>
+        <v>-1437.7</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>46090.074364</v>
       </c>
       <c r="B9" s="1">
-        <v>12.802798</v>
+        <v>12.802797999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>902.227000</v>
+        <v>902.22699999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-179.398000</v>
+        <v>-179.398</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>46100.485908</v>
+        <v>46100.485908000002</v>
       </c>
       <c r="G9" s="1">
-        <v>12.805691</v>
+        <v>12.805690999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>917.407000</v>
+        <v>917.40700000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>-154.174000</v>
+        <v>-154.17400000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>46110.944049</v>
+        <v>46110.944048999998</v>
       </c>
       <c r="L9" s="1">
         <v>12.808596</v>
       </c>
       <c r="M9" s="1">
-        <v>939.498000</v>
+        <v>939.49800000000005</v>
       </c>
       <c r="N9" s="1">
-        <v>-113.285000</v>
+        <v>-113.285</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>46121.471609</v>
       </c>
       <c r="Q9" s="1">
-        <v>12.811520</v>
+        <v>12.81152</v>
       </c>
       <c r="R9" s="1">
-        <v>946.897000</v>
+        <v>946.89700000000005</v>
       </c>
       <c r="S9" s="1">
-        <v>-99.406300</v>
+        <v>-99.406300000000002</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>46131.993279</v>
+        <v>46131.993279000002</v>
       </c>
       <c r="V9" s="1">
-        <v>12.814443</v>
+        <v>12.814443000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>954.418000</v>
+        <v>954.41800000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-86.335800</v>
+        <v>-86.335800000000006</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>46142.493581</v>
+        <v>46142.493581000002</v>
       </c>
       <c r="AA9" s="1">
         <v>12.817359</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.711000</v>
+        <v>962.71100000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.150500</v>
+        <v>-76.150499999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>46152.939790</v>
+        <v>46152.939789999997</v>
       </c>
       <c r="AF9" s="1">
         <v>12.820261</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.783000</v>
+        <v>967.78300000000002</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.407800</v>
+        <v>-74.407799999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>46163.387522</v>
+        <v>46163.387521999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>12.823163</v>
+        <v>12.823162999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.389000</v>
+        <v>975.38900000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.530700</v>
+        <v>-79.530699999999996</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>46173.759364</v>
+        <v>46173.759363999998</v>
       </c>
       <c r="AP9" s="1">
         <v>12.826044</v>
       </c>
       <c r="AQ9" s="1">
-        <v>983.669000</v>
+        <v>983.66899999999998</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.354800</v>
+        <v>-91.354799999999997</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>46184.444678</v>
       </c>
       <c r="AU9" s="1">
-        <v>12.829012</v>
+        <v>12.829012000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>993.635000</v>
+        <v>993.63499999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.216000</v>
+        <v>-109.21599999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>46195.466279</v>
@@ -2430,88 +2846,88 @@
         <v>12.832074</v>
       </c>
       <c r="BA9" s="1">
-        <v>1001.960000</v>
+        <v>1001.96</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.975000</v>
+        <v>-124.97499999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>46206.515051</v>
+        <v>46206.515051000002</v>
       </c>
       <c r="BE9" s="1">
         <v>12.835143</v>
       </c>
       <c r="BF9" s="1">
-        <v>1040.720000</v>
+        <v>1040.72</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.404000</v>
+        <v>-197.404</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>46217.707386</v>
+        <v>46217.707386000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>12.838252</v>
+        <v>12.838252000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1107.530000</v>
+        <v>1107.53</v>
       </c>
       <c r="BL9" s="1">
-        <v>-314.930000</v>
+        <v>-314.93</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>46228.669503</v>
+        <v>46228.669502999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>12.841297</v>
+        <v>12.841297000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1216.020000</v>
+        <v>1216.02</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-500.399000</v>
+        <v>-500.399</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>46239.951468</v>
+        <v>46239.951467999999</v>
       </c>
       <c r="BT9" s="1">
         <v>12.844431</v>
       </c>
       <c r="BU9" s="1">
-        <v>1338.480000</v>
+        <v>1338.48</v>
       </c>
       <c r="BV9" s="1">
-        <v>-704.290000</v>
+        <v>-704.29</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>46251.058415</v>
       </c>
       <c r="BY9" s="1">
-        <v>12.847516</v>
+        <v>12.847516000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1474.910000</v>
+        <v>1474.91</v>
       </c>
       <c r="CA9" s="1">
-        <v>-921.566000</v>
+        <v>-921.56600000000003</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>46262.657326</v>
@@ -2520,377 +2936,377 @@
         <v>12.850738</v>
       </c>
       <c r="CE9" s="1">
-        <v>1833.370000</v>
+        <v>1833.37</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1438.460000</v>
+        <v>-1438.46</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>46090.421092</v>
+        <v>46090.421091999997</v>
       </c>
       <c r="B10" s="1">
-        <v>12.802895</v>
+        <v>12.802894999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>902.447000</v>
+        <v>902.447</v>
       </c>
       <c r="D10" s="1">
-        <v>-179.356000</v>
+        <v>-179.35599999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>46100.829635</v>
+        <v>46100.829635000002</v>
       </c>
       <c r="G10" s="1">
-        <v>12.805786</v>
+        <v>12.805785999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>917.188000</v>
+        <v>917.18799999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-154.028000</v>
+        <v>-154.02799999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>46111.289734</v>
+        <v>46111.289733999998</v>
       </c>
       <c r="L10" s="1">
-        <v>12.808692</v>
+        <v>12.808692000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>939.491000</v>
+        <v>939.49099999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-113.184000</v>
+        <v>-113.184</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>46121.897703</v>
+        <v>46121.897703000002</v>
       </c>
       <c r="Q10" s="1">
         <v>12.811638</v>
       </c>
       <c r="R10" s="1">
-        <v>946.931000</v>
+        <v>946.93100000000004</v>
       </c>
       <c r="S10" s="1">
-        <v>-99.426500</v>
+        <v>-99.426500000000004</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>46132.436667</v>
+        <v>46132.436667000002</v>
       </c>
       <c r="V10" s="1">
-        <v>12.814566</v>
+        <v>12.814565999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>954.444000</v>
+        <v>954.44399999999996</v>
       </c>
       <c r="X10" s="1">
-        <v>-86.222100</v>
+        <v>-86.222099999999998</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>46142.772333</v>
+        <v>46142.772333000001</v>
       </c>
       <c r="AA10" s="1">
         <v>12.817437</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.616000</v>
+        <v>962.61599999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.084600</v>
+        <v>-76.084599999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>46153.281040</v>
+        <v>46153.281040000002</v>
       </c>
       <c r="AF10" s="1">
         <v>12.820356</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.810000</v>
+        <v>967.81</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.398900</v>
+        <v>-74.398899999999998</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>46163.736704</v>
+        <v>46163.736704000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>12.823260</v>
+        <v>12.823259999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.375000</v>
+        <v>975.375</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.529200</v>
+        <v>-79.529200000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>46174.117972</v>
       </c>
       <c r="AP10" s="1">
-        <v>12.826144</v>
+        <v>12.826143999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>983.671000</v>
+        <v>983.67100000000005</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.345800</v>
+        <v>-91.345799999999997</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>46185.173300</v>
+        <v>46185.173300000002</v>
       </c>
       <c r="AU10" s="1">
         <v>12.829215</v>
       </c>
       <c r="AV10" s="1">
-        <v>993.631000</v>
+        <v>993.63099999999997</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.220000</v>
+        <v>-109.22</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>46196.191966</v>
+        <v>46196.191965999999</v>
       </c>
       <c r="AZ10" s="1">
         <v>12.832276</v>
       </c>
       <c r="BA10" s="1">
-        <v>1001.960000</v>
+        <v>1001.96</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.967000</v>
+        <v>-124.967</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>46206.872777</v>
+        <v>46206.872776999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>12.835242</v>
+        <v>12.835241999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1040.730000</v>
+        <v>1040.73</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.393000</v>
+        <v>-197.393</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>46218.083392</v>
       </c>
       <c r="BJ10" s="1">
-        <v>12.838356</v>
+        <v>12.838355999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1107.530000</v>
+        <v>1107.53</v>
       </c>
       <c r="BL10" s="1">
-        <v>-314.904000</v>
+        <v>-314.904</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>46229.066795</v>
+        <v>46229.066794999999</v>
       </c>
       <c r="BO10" s="1">
         <v>12.841407</v>
       </c>
       <c r="BP10" s="1">
-        <v>1215.980000</v>
+        <v>1215.98</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-500.415000</v>
+        <v>-500.41500000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>46240.693026</v>
+        <v>46240.693026000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>12.844637</v>
+        <v>12.844637000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1338.460000</v>
+        <v>1338.46</v>
       </c>
       <c r="BV10" s="1">
-        <v>-704.222000</v>
+        <v>-704.22199999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>46251.174941</v>
+        <v>46251.174940999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>12.847549</v>
+        <v>12.847549000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1475.020000</v>
+        <v>1475.02</v>
       </c>
       <c r="CA10" s="1">
-        <v>-921.593000</v>
+        <v>-921.59299999999996</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>46262.894445</v>
+        <v>46262.894444999998</v>
       </c>
       <c r="CD10" s="1">
         <v>12.850804</v>
       </c>
       <c r="CE10" s="1">
-        <v>1834.800000</v>
+        <v>1834.8</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1439.250000</v>
+        <v>-1439.25</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>46090.763298</v>
+        <v>46090.763297999998</v>
       </c>
       <c r="B11" s="1">
-        <v>12.802990</v>
+        <v>12.802989999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>902.236000</v>
+        <v>902.23599999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-179.403000</v>
+        <v>-179.40299999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>46101.246739</v>
+        <v>46101.246739000002</v>
       </c>
       <c r="G11" s="1">
         <v>12.805902</v>
       </c>
       <c r="H11" s="1">
-        <v>917.503000</v>
+        <v>917.50300000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-153.829000</v>
+        <v>-153.82900000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>46111.706375</v>
+        <v>46111.706375000002</v>
       </c>
       <c r="L11" s="1">
         <v>12.808807</v>
       </c>
       <c r="M11" s="1">
-        <v>939.627000</v>
+        <v>939.62699999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-113.168000</v>
+        <v>-113.16800000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>46122.179927</v>
+        <v>46122.179926999997</v>
       </c>
       <c r="Q11" s="1">
         <v>12.811717</v>
       </c>
       <c r="R11" s="1">
-        <v>946.913000</v>
+        <v>946.91300000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-99.393200</v>
+        <v>-99.393199999999993</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>46132.701034</v>
+        <v>46132.701033999998</v>
       </c>
       <c r="V11" s="1">
         <v>12.814639</v>
       </c>
       <c r="W11" s="1">
-        <v>954.560000</v>
+        <v>954.56</v>
       </c>
       <c r="X11" s="1">
-        <v>-86.287800</v>
+        <v>-86.287800000000004</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>46143.121981</v>
+        <v>46143.121980999997</v>
       </c>
       <c r="AA11" s="1">
         <v>12.817534</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.580000</v>
+        <v>962.58</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.092500</v>
+        <v>-76.092500000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>46153.627246</v>
+        <v>46153.627245999996</v>
       </c>
       <c r="AF11" s="1">
         <v>12.820452</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.780000</v>
+        <v>967.78</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.449300</v>
+        <v>-74.449299999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>46164.083435</v>
@@ -2899,133 +3315,133 @@
         <v>12.823357</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.377000</v>
+        <v>975.37699999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.551300</v>
+        <v>-79.551299999999998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>46174.837667</v>
       </c>
       <c r="AP11" s="1">
-        <v>12.826344</v>
+        <v>12.826344000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>983.665000</v>
+        <v>983.66499999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.357000</v>
+        <v>-91.356999999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>46185.538851</v>
+        <v>46185.538850999998</v>
       </c>
       <c r="AU11" s="1">
         <v>12.829316</v>
       </c>
       <c r="AV11" s="1">
-        <v>993.649000</v>
+        <v>993.649</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.227000</v>
+        <v>-109.227</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>46196.566405</v>
+        <v>46196.566404999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>12.832380</v>
+        <v>12.832380000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1001.960000</v>
+        <v>1001.96</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.994000</v>
+        <v>-124.994</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>46207.233396</v>
+        <v>46207.233396000003</v>
       </c>
       <c r="BE11" s="1">
         <v>12.835343</v>
       </c>
       <c r="BF11" s="1">
-        <v>1040.740000</v>
+        <v>1040.74</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.389000</v>
+        <v>-197.38900000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>46218.766345</v>
+        <v>46218.766344999996</v>
       </c>
       <c r="BJ11" s="1">
-        <v>12.838546</v>
+        <v>12.838545999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1107.550000</v>
+        <v>1107.55</v>
       </c>
       <c r="BL11" s="1">
-        <v>-314.948000</v>
+        <v>-314.94799999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>46229.800841</v>
+        <v>46229.800840999997</v>
       </c>
       <c r="BO11" s="1">
         <v>12.841611</v>
       </c>
       <c r="BP11" s="1">
-        <v>1216.000000</v>
+        <v>1216</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-500.422000</v>
+        <v>-500.42200000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>46240.823932</v>
+        <v>46240.823931999999</v>
       </c>
       <c r="BT11" s="1">
         <v>12.844673</v>
       </c>
       <c r="BU11" s="1">
-        <v>1338.390000</v>
+        <v>1338.39</v>
       </c>
       <c r="BV11" s="1">
-        <v>-704.098000</v>
+        <v>-704.09799999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>46251.621836</v>
+        <v>46251.621835999998</v>
       </c>
       <c r="BY11" s="1">
         <v>12.847673</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1474.790000</v>
+        <v>1474.79</v>
       </c>
       <c r="CA11" s="1">
-        <v>-921.556000</v>
+        <v>-921.55600000000004</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>46263.434556</v>
@@ -3034,754 +3450,754 @@
         <v>12.850954</v>
       </c>
       <c r="CE11" s="1">
-        <v>1834.290000</v>
+        <v>1834.29</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1437.780000</v>
+        <v>-1437.78</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>46091.192336</v>
       </c>
       <c r="B12" s="1">
-        <v>12.803109</v>
+        <v>12.803108999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>902.215000</v>
+        <v>902.21500000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>-179.451000</v>
+        <v>-179.45099999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>46101.518584</v>
+        <v>46101.518583999998</v>
       </c>
       <c r="G12" s="1">
         <v>12.805977</v>
       </c>
       <c r="H12" s="1">
-        <v>917.543000</v>
+        <v>917.54300000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-153.726000</v>
+        <v>-153.726</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>46112.002981</v>
+        <v>46112.002980999998</v>
       </c>
       <c r="L12" s="1">
-        <v>12.808890</v>
+        <v>12.80889</v>
       </c>
       <c r="M12" s="1">
-        <v>939.682000</v>
+        <v>939.68200000000002</v>
       </c>
       <c r="N12" s="1">
-        <v>-113.127000</v>
+        <v>-113.127</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>46122.528583</v>
+        <v>46122.528582999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>12.811813</v>
+        <v>12.811813000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>946.873000</v>
+        <v>946.87300000000005</v>
       </c>
       <c r="S12" s="1">
-        <v>-99.337700</v>
+        <v>-99.337699999999998</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>46133.044298</v>
+        <v>46133.044298000001</v>
       </c>
       <c r="V12" s="1">
-        <v>12.814735</v>
+        <v>12.814735000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>954.412000</v>
+        <v>954.41200000000003</v>
       </c>
       <c r="X12" s="1">
-        <v>-86.354700</v>
+        <v>-86.354699999999994</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>46143.472187</v>
+        <v>46143.472186999999</v>
       </c>
       <c r="AA12" s="1">
         <v>12.817631</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.611000</v>
+        <v>962.61099999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.136700</v>
+        <v>-76.136700000000005</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>46154.311229</v>
+        <v>46154.311228999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>12.820642</v>
+        <v>12.820641999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.802000</v>
+        <v>967.80200000000002</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.428000</v>
+        <v>-74.427999999999997</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>46164.783759</v>
+        <v>46164.783758999998</v>
       </c>
       <c r="AK12" s="1">
         <v>12.823551</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.373000</v>
+        <v>975.37300000000005</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.526100</v>
+        <v>-79.5261</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>46175.202261</v>
+        <v>46175.202260999999</v>
       </c>
       <c r="AP12" s="1">
         <v>12.826445</v>
       </c>
       <c r="AQ12" s="1">
-        <v>983.677000</v>
+        <v>983.67700000000002</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.325700</v>
+        <v>-91.325699999999998</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>46185.903442</v>
+        <v>46185.903442000003</v>
       </c>
       <c r="AU12" s="1">
         <v>12.829418</v>
       </c>
       <c r="AV12" s="1">
-        <v>993.633000</v>
+        <v>993.63300000000004</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.203000</v>
+        <v>-109.203</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>46196.944853</v>
+        <v>46196.944853000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>12.832485</v>
       </c>
       <c r="BA12" s="1">
-        <v>1001.950000</v>
+        <v>1001.95</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.969000</v>
+        <v>-124.96899999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>46207.914376</v>
+        <v>46207.914376000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>12.835532</v>
+        <v>12.835532000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1040.760000</v>
+        <v>1040.76</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.407000</v>
+        <v>-197.40700000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>46218.876951</v>
+        <v>46218.876950999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>12.838577</v>
+        <v>12.838577000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1107.520000</v>
+        <v>1107.52</v>
       </c>
       <c r="BL12" s="1">
-        <v>-314.919000</v>
+        <v>-314.91899999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>46230.316720</v>
+        <v>46230.316720000003</v>
       </c>
       <c r="BO12" s="1">
-        <v>12.841755</v>
+        <v>12.841754999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1215.970000</v>
+        <v>1215.97</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-500.434000</v>
+        <v>-500.43400000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>46241.234618</v>
+        <v>46241.234618000002</v>
       </c>
       <c r="BT12" s="1">
         <v>12.844787</v>
       </c>
       <c r="BU12" s="1">
-        <v>1338.310000</v>
+        <v>1338.31</v>
       </c>
       <c r="BV12" s="1">
-        <v>-704.045000</v>
+        <v>-704.04499999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>46252.054348</v>
+        <v>46252.054347999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>12.847793</v>
+        <v>12.847792999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1474.800000</v>
+        <v>1474.8</v>
       </c>
       <c r="CA12" s="1">
-        <v>-921.638000</v>
+        <v>-921.63800000000003</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>46263.977675</v>
+        <v>46263.977675000002</v>
       </c>
       <c r="CD12" s="1">
         <v>12.851105</v>
       </c>
       <c r="CE12" s="1">
-        <v>1833.730000</v>
+        <v>1833.73</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1438.940000</v>
+        <v>-1438.94</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>46091.460176</v>
+        <v>46091.460176000001</v>
       </c>
       <c r="B13" s="1">
-        <v>12.803183</v>
+        <v>12.803183000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>902.309000</v>
+        <v>902.30899999999997</v>
       </c>
       <c r="D13" s="1">
-        <v>-179.370000</v>
+        <v>-179.37</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>46101.862803</v>
+        <v>46101.862803000004</v>
       </c>
       <c r="G13" s="1">
         <v>12.806073</v>
       </c>
       <c r="H13" s="1">
-        <v>917.272000</v>
+        <v>917.27200000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-153.975000</v>
+        <v>-153.97499999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>46112.350706</v>
+        <v>46112.350705999997</v>
       </c>
       <c r="L13" s="1">
-        <v>12.808986</v>
+        <v>12.808986000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>939.665000</v>
+        <v>939.66499999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>-113.270000</v>
+        <v>-113.27</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>46122.878758</v>
+        <v>46122.878757999999</v>
       </c>
       <c r="Q13" s="1">
         <v>12.811911</v>
       </c>
       <c r="R13" s="1">
-        <v>946.870000</v>
+        <v>946.87</v>
       </c>
       <c r="S13" s="1">
-        <v>-99.291600</v>
+        <v>-99.291600000000003</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>46133.727257</v>
+        <v>46133.727256999999</v>
       </c>
       <c r="V13" s="1">
         <v>12.814924</v>
       </c>
       <c r="W13" s="1">
-        <v>954.424000</v>
+        <v>954.42399999999998</v>
       </c>
       <c r="X13" s="1">
-        <v>-86.358300</v>
+        <v>-86.3583</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>46144.164074</v>
       </c>
       <c r="AA13" s="1">
-        <v>12.817823</v>
+        <v>12.817823000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.621000</v>
+        <v>962.62099999999998</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.088200</v>
+        <v>-76.088200000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>46154.654957</v>
+        <v>46154.654956999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>12.820737</v>
+        <v>12.820736999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.780000</v>
+        <v>967.78</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.458100</v>
+        <v>-74.458100000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>46165.130497</v>
+        <v>46165.130496999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>12.823647</v>
+        <v>12.823646999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.390000</v>
+        <v>975.39</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.508400</v>
+        <v>-79.508399999999995</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>46175.561826</v>
+        <v>46175.561825999997</v>
       </c>
       <c r="AP13" s="1">
-        <v>12.826545</v>
+        <v>12.826544999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>983.656000</v>
+        <v>983.65599999999995</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.345100</v>
+        <v>-91.345100000000002</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>46186.584450</v>
+        <v>46186.584450000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>12.829607</v>
+        <v>12.829606999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>993.652000</v>
+        <v>993.65200000000004</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.218000</v>
+        <v>-109.218</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>46197.633796</v>
+        <v>46197.633796000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>12.832676</v>
+        <v>12.832675999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1001.970000</v>
+        <v>1001.97</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.975000</v>
+        <v>-124.97499999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>46208.345920</v>
+        <v>46208.34592</v>
       </c>
       <c r="BE13" s="1">
         <v>12.835652</v>
       </c>
       <c r="BF13" s="1">
-        <v>1040.750000</v>
+        <v>1040.75</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.407000</v>
+        <v>-197.40700000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>46219.237047</v>
+        <v>46219.237047000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>12.838677</v>
+        <v>12.838677000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1107.530000</v>
+        <v>1107.53</v>
       </c>
       <c r="BL13" s="1">
-        <v>-314.935000</v>
+        <v>-314.935</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>46230.727369</v>
       </c>
       <c r="BO13" s="1">
-        <v>12.841869</v>
+        <v>12.841869000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1216.040000</v>
+        <v>1216.04</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-500.427000</v>
+        <v>-500.42700000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>46241.663659</v>
+        <v>46241.663658999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>12.844907</v>
+        <v>12.844906999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1338.280000</v>
+        <v>1338.28</v>
       </c>
       <c r="BV13" s="1">
-        <v>-703.924000</v>
+        <v>-703.92399999999998</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>46252.482891</v>
       </c>
       <c r="BY13" s="1">
-        <v>12.847912</v>
+        <v>12.847912000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1474.890000</v>
+        <v>1474.89</v>
       </c>
       <c r="CA13" s="1">
-        <v>-921.611000</v>
+        <v>-921.61099999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>46264.514843</v>
+        <v>46264.514842999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>12.851254</v>
+        <v>12.851254000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1835.110000</v>
+        <v>1835.11</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1438.230000</v>
+        <v>-1438.23</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>46091.801919</v>
+        <v>46091.801918999998</v>
       </c>
       <c r="B14" s="1">
-        <v>12.803278</v>
+        <v>12.803278000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>902.385000</v>
+        <v>902.38499999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-179.487000</v>
+        <v>-179.48699999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>46102.207087</v>
+        <v>46102.207087000003</v>
       </c>
       <c r="G14" s="1">
-        <v>12.806169</v>
+        <v>12.806169000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>917.718000</v>
+        <v>917.71799999999996</v>
       </c>
       <c r="I14" s="1">
-        <v>-153.626000</v>
+        <v>-153.626</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>46112.696911</v>
+        <v>46112.696910999999</v>
       </c>
       <c r="L14" s="1">
         <v>12.809082</v>
       </c>
       <c r="M14" s="1">
-        <v>939.612000</v>
+        <v>939.61199999999997</v>
       </c>
       <c r="N14" s="1">
-        <v>-113.179000</v>
+        <v>-113.179</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>46123.575143</v>
+        <v>46123.575143000002</v>
       </c>
       <c r="Q14" s="1">
         <v>12.812104</v>
       </c>
       <c r="R14" s="1">
-        <v>946.869000</v>
+        <v>946.86900000000003</v>
       </c>
       <c r="S14" s="1">
-        <v>-99.285800</v>
+        <v>-99.285799999999995</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>46134.070984</v>
+        <v>46134.070983999998</v>
       </c>
       <c r="V14" s="1">
-        <v>12.815020</v>
+        <v>12.815020000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>954.353000</v>
+        <v>954.35299999999995</v>
       </c>
       <c r="X14" s="1">
-        <v>-86.322600</v>
+        <v>-86.322599999999994</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>46144.515769</v>
+        <v>46144.515768999998</v>
       </c>
       <c r="AA14" s="1">
         <v>12.817921</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.670000</v>
+        <v>962.67</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.022900</v>
+        <v>-76.022900000000007</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>46154.997724</v>
+        <v>46154.997724000001</v>
       </c>
       <c r="AF14" s="1">
         <v>12.820833</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.823000</v>
+        <v>967.82299999999998</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.396600</v>
+        <v>-74.396600000000007</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>46165.476689</v>
+        <v>46165.476689000003</v>
       </c>
       <c r="AK14" s="1">
         <v>12.823744</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.392000</v>
+        <v>975.39200000000005</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.531200</v>
+        <v>-79.531199999999998</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>46176.234928</v>
+        <v>46176.234927999998</v>
       </c>
       <c r="AP14" s="1">
         <v>12.826732</v>
       </c>
       <c r="AQ14" s="1">
-        <v>983.662000</v>
+        <v>983.66200000000003</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.329200</v>
+        <v>-91.3292</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>46186.998116</v>
+        <v>46186.998116000002</v>
       </c>
       <c r="AU14" s="1">
         <v>12.829722</v>
       </c>
       <c r="AV14" s="1">
-        <v>993.638000</v>
+        <v>993.63800000000003</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.231000</v>
+        <v>-109.23099999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>46198.029107</v>
+        <v>46198.029107000002</v>
       </c>
       <c r="AZ14" s="1">
         <v>12.832786</v>
       </c>
       <c r="BA14" s="1">
-        <v>1001.970000</v>
+        <v>1001.97</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.973000</v>
+        <v>-124.973</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>46208.706982</v>
+        <v>46208.706982000003</v>
       </c>
       <c r="BE14" s="1">
-        <v>12.835752</v>
+        <v>12.835751999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1040.770000</v>
+        <v>1040.77</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.407000</v>
+        <v>-197.40700000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>46219.611526</v>
+        <v>46219.611526000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>12.838781</v>
+        <v>12.838781000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1107.540000</v>
+        <v>1107.54</v>
       </c>
       <c r="BL14" s="1">
-        <v>-314.956000</v>
+        <v>-314.95600000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>46231.124663</v>
+        <v>46231.124663000002</v>
       </c>
       <c r="BO14" s="1">
         <v>12.841979</v>
       </c>
       <c r="BP14" s="1">
-        <v>1215.970000</v>
+        <v>1215.97</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-500.436000</v>
+        <v>-500.43599999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>46242.080794</v>
+        <v>46242.080794000001</v>
       </c>
       <c r="BT14" s="1">
         <v>12.845022</v>
       </c>
       <c r="BU14" s="1">
-        <v>1338.170000</v>
+        <v>1338.17</v>
       </c>
       <c r="BV14" s="1">
-        <v>-703.932000</v>
+        <v>-703.93200000000002</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>46252.897546</v>
@@ -3790,60 +4206,60 @@
         <v>12.848027</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1474.880000</v>
+        <v>1474.88</v>
       </c>
       <c r="CA14" s="1">
-        <v>-921.626000</v>
+        <v>-921.62599999999998</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>46265.053995</v>
+        <v>46265.053995000002</v>
       </c>
       <c r="CD14" s="1">
         <v>12.851404</v>
       </c>
       <c r="CE14" s="1">
-        <v>1833.400000</v>
+        <v>1833.4</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1438.380000</v>
+        <v>-1438.38</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>46092.146639</v>
+        <v>46092.146638999999</v>
       </c>
       <c r="B15" s="1">
         <v>12.803374</v>
       </c>
       <c r="C15" s="1">
-        <v>901.980000</v>
+        <v>901.98</v>
       </c>
       <c r="D15" s="1">
-        <v>-179.518000</v>
+        <v>-179.518</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>46102.895441</v>
+        <v>46102.895441000001</v>
       </c>
       <c r="G15" s="1">
-        <v>12.806360</v>
+        <v>12.80636</v>
       </c>
       <c r="H15" s="1">
-        <v>917.432000</v>
+        <v>917.43200000000002</v>
       </c>
       <c r="I15" s="1">
-        <v>-153.811000</v>
+        <v>-153.81100000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>46113.389507</v>
@@ -3852,43 +4268,43 @@
         <v>12.809275</v>
       </c>
       <c r="M15" s="1">
-        <v>939.592000</v>
+        <v>939.59199999999998</v>
       </c>
       <c r="N15" s="1">
-        <v>-113.157000</v>
+        <v>-113.157</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>46123.922837</v>
+        <v>46123.922836999998</v>
       </c>
       <c r="Q15" s="1">
         <v>12.812201</v>
       </c>
       <c r="R15" s="1">
-        <v>946.920000</v>
+        <v>946.92</v>
       </c>
       <c r="S15" s="1">
-        <v>-99.438300</v>
+        <v>-99.438299999999998</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>46134.421052</v>
+        <v>46134.421051999998</v>
       </c>
       <c r="V15" s="1">
-        <v>12.815117</v>
+        <v>12.815117000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>954.446000</v>
+        <v>954.44600000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-86.265800</v>
+        <v>-86.265799999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>46144.864427</v>
@@ -3897,118 +4313,118 @@
         <v>12.818018</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.630000</v>
+        <v>962.63</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.159800</v>
+        <v>-76.159800000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>46155.655919</v>
+        <v>46155.655918999997</v>
       </c>
       <c r="AF15" s="1">
         <v>12.821016</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.782000</v>
+        <v>967.78200000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.474500</v>
+        <v>-74.474500000000006</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>46165.924595</v>
+        <v>46165.924594999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>12.823868</v>
+        <v>12.823867999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.402000</v>
+        <v>975.40200000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.544700</v>
+        <v>-79.544700000000006</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>46176.671871</v>
+        <v>46176.671870999999</v>
       </c>
       <c r="AP15" s="1">
         <v>12.826853</v>
       </c>
       <c r="AQ15" s="1">
-        <v>983.670000</v>
+        <v>983.67</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.322300</v>
+        <v>-91.322299999999998</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>46187.361683</v>
+        <v>46187.361683000003</v>
       </c>
       <c r="AU15" s="1">
-        <v>12.829823</v>
+        <v>12.829822999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>993.642000</v>
+        <v>993.64200000000005</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.195000</v>
+        <v>-109.19499999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>46198.407060</v>
+        <v>46198.407059999998</v>
       </c>
       <c r="AZ15" s="1">
         <v>12.832891</v>
       </c>
       <c r="BA15" s="1">
-        <v>1001.960000</v>
+        <v>1001.96</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.983000</v>
+        <v>-124.983</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>46209.067573</v>
       </c>
       <c r="BE15" s="1">
-        <v>12.835852</v>
+        <v>12.835851999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1040.750000</v>
+        <v>1040.75</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.404000</v>
+        <v>-197.404</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>46220.027710</v>
+        <v>46220.027710000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>12.838897</v>
+        <v>12.838896999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1107.540000</v>
+        <v>1107.54</v>
       </c>
       <c r="BL15" s="1">
-        <v>-314.972000</v>
+        <v>-314.97199999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>46231.586936</v>
@@ -4017,180 +4433,180 @@
         <v>12.842107</v>
       </c>
       <c r="BP15" s="1">
-        <v>1215.970000</v>
+        <v>1215.97</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-500.436000</v>
+        <v>-500.43599999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>46242.491481</v>
+        <v>46242.491480999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>12.845137</v>
+        <v>12.845136999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1338.050000</v>
+        <v>1338.05</v>
       </c>
       <c r="BV15" s="1">
-        <v>-703.879000</v>
+        <v>-703.87900000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>46253.321130</v>
+        <v>46253.321129999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>12.848145</v>
+        <v>12.848145000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1474.750000</v>
+        <v>1474.75</v>
       </c>
       <c r="CA15" s="1">
-        <v>-921.603000</v>
+        <v>-921.60299999999995</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>46265.594139</v>
+        <v>46265.594139000001</v>
       </c>
       <c r="CD15" s="1">
         <v>12.851554</v>
       </c>
       <c r="CE15" s="1">
-        <v>1834.970000</v>
+        <v>1834.97</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1439.070000</v>
+        <v>-1439.07</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>46092.827646</v>
+        <v>46092.827645999998</v>
       </c>
       <c r="B16" s="1">
         <v>12.803563</v>
       </c>
       <c r="C16" s="1">
-        <v>902.271000</v>
+        <v>902.27099999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-179.316000</v>
+        <v>-179.316</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>46103.242671</v>
       </c>
       <c r="G16" s="1">
-        <v>12.806456</v>
+        <v>12.806456000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>916.873000</v>
+        <v>916.87300000000005</v>
       </c>
       <c r="I16" s="1">
-        <v>-153.574000</v>
+        <v>-153.57400000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>46113.734515</v>
+        <v>46113.734514999996</v>
       </c>
       <c r="L16" s="1">
-        <v>12.809371</v>
+        <v>12.809371000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>939.624000</v>
+        <v>939.62400000000002</v>
       </c>
       <c r="N16" s="1">
-        <v>-113.072000</v>
+        <v>-113.072</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>46124.271868</v>
+        <v>46124.271868000003</v>
       </c>
       <c r="Q16" s="1">
         <v>12.812298</v>
       </c>
       <c r="R16" s="1">
-        <v>946.942000</v>
+        <v>946.94200000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-99.283400</v>
+        <v>-99.2834</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>46135.068969</v>
       </c>
       <c r="V16" s="1">
-        <v>12.815297</v>
+        <v>12.815296999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>954.369000</v>
+        <v>954.36900000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-86.358900</v>
+        <v>-86.358900000000006</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>46145.524104</v>
+        <v>46145.524103999996</v>
       </c>
       <c r="AA16" s="1">
         <v>12.818201</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.640000</v>
+        <v>962.64</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.147200</v>
+        <v>-76.147199999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>46156.031354</v>
+        <v>46156.031353999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>12.821120</v>
+        <v>12.821120000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.809000</v>
+        <v>967.80899999999997</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.444900</v>
+        <v>-74.444900000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>46166.193422</v>
+        <v>46166.193421999997</v>
       </c>
       <c r="AK16" s="1">
         <v>12.823943</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.409000</v>
+        <v>975.40899999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.547500</v>
+        <v>-79.547499999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>46177.025555</v>
@@ -4199,375 +4615,375 @@
         <v>12.826952</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.665000</v>
+        <v>983.66499999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.347400</v>
+        <v>-91.347399999999993</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>46187.727201</v>
+        <v>46187.727201000002</v>
       </c>
       <c r="AU16" s="1">
         <v>12.829924</v>
       </c>
       <c r="AV16" s="1">
-        <v>993.647000</v>
+        <v>993.64700000000005</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.224000</v>
+        <v>-109.224</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>46198.981427</v>
+        <v>46198.981426999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>12.833050</v>
+        <v>12.83305</v>
       </c>
       <c r="BA16" s="1">
-        <v>1001.940000</v>
+        <v>1001.94</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.967000</v>
+        <v>-124.967</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>46209.488212</v>
+        <v>46209.488211999997</v>
       </c>
       <c r="BE16" s="1">
         <v>12.835969</v>
       </c>
       <c r="BF16" s="1">
-        <v>1040.740000</v>
+        <v>1040.74</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.388000</v>
+        <v>-197.38800000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>46220.360981</v>
+        <v>46220.360980999998</v>
       </c>
       <c r="BJ16" s="1">
         <v>12.838989</v>
       </c>
       <c r="BK16" s="1">
-        <v>1107.550000</v>
+        <v>1107.55</v>
       </c>
       <c r="BL16" s="1">
-        <v>-314.924000</v>
+        <v>-314.92399999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>46231.939094</v>
+        <v>46231.939094000001</v>
       </c>
       <c r="BO16" s="1">
         <v>12.842205</v>
       </c>
       <c r="BP16" s="1">
-        <v>1216.010000</v>
+        <v>1216.01</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-500.429000</v>
+        <v>-500.42899999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>46242.907169</v>
+        <v>46242.907168999998</v>
       </c>
       <c r="BT16" s="1">
         <v>12.845252</v>
       </c>
       <c r="BU16" s="1">
-        <v>1337.990000</v>
+        <v>1337.99</v>
       </c>
       <c r="BV16" s="1">
-        <v>-703.981000</v>
+        <v>-703.98099999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>46253.740747</v>
+        <v>46253.740747000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>12.848261</v>
+        <v>12.848261000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1474.830000</v>
+        <v>1474.83</v>
       </c>
       <c r="CA16" s="1">
-        <v>-921.682000</v>
+        <v>-921.68200000000002</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>46266.133818</v>
+        <v>46266.133818000002</v>
       </c>
       <c r="CD16" s="1">
         <v>12.851704</v>
       </c>
       <c r="CE16" s="1">
-        <v>1834.110000</v>
+        <v>1834.11</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1437.950000</v>
+        <v>-1437.95</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>46093.171373</v>
+        <v>46093.171372999997</v>
       </c>
       <c r="B17" s="1">
         <v>12.803659</v>
       </c>
       <c r="C17" s="1">
-        <v>902.271000</v>
+        <v>902.27099999999996</v>
       </c>
       <c r="D17" s="1">
-        <v>-179.318000</v>
+        <v>-179.31800000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>46103.589345</v>
       </c>
       <c r="G17" s="1">
-        <v>12.806553</v>
+        <v>12.806552999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>916.968000</v>
+        <v>916.96799999999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-153.546000</v>
+        <v>-153.54599999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>46114.079731</v>
+        <v>46114.079730999998</v>
       </c>
       <c r="L17" s="1">
         <v>12.809467</v>
       </c>
       <c r="M17" s="1">
-        <v>939.584000</v>
+        <v>939.58399999999995</v>
       </c>
       <c r="N17" s="1">
-        <v>-113.213000</v>
+        <v>-113.21299999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>46124.922807</v>
+        <v>46124.922807000003</v>
       </c>
       <c r="Q17" s="1">
         <v>12.812479</v>
       </c>
       <c r="R17" s="1">
-        <v>946.890000</v>
+        <v>946.89</v>
       </c>
       <c r="S17" s="1">
-        <v>-99.447400</v>
+        <v>-99.447400000000002</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>46135.444902</v>
+        <v>46135.444902000003</v>
       </c>
       <c r="V17" s="1">
         <v>12.815401</v>
       </c>
       <c r="W17" s="1">
-        <v>954.470000</v>
+        <v>954.47</v>
       </c>
       <c r="X17" s="1">
-        <v>-86.329800</v>
+        <v>-86.329800000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>46145.911018</v>
+        <v>46145.911017999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>12.818309</v>
+        <v>12.818308999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.623000</v>
+        <v>962.62300000000005</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.098000</v>
+        <v>-76.097999999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>46156.372603</v>
+        <v>46156.372603000003</v>
       </c>
       <c r="AF17" s="1">
         <v>12.821215</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.768000</v>
+        <v>967.76800000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.395800</v>
+        <v>-74.395799999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>46166.539597</v>
+        <v>46166.539597000003</v>
       </c>
       <c r="AK17" s="1">
-        <v>12.824039</v>
+        <v>12.824039000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.379000</v>
+        <v>975.37900000000002</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.552700</v>
+        <v>-79.552700000000002</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>46177.391104</v>
+        <v>46177.391104000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>12.827053</v>
+        <v>12.827052999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.675000</v>
+        <v>983.67499999999995</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.336900</v>
+        <v>-91.3369</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>46188.157264</v>
+        <v>46188.157264000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>12.830044</v>
+        <v>12.830043999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>993.642000</v>
+        <v>993.64200000000005</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.229000</v>
+        <v>-109.229</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>46199.144641</v>
+        <v>46199.144640999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>12.833096</v>
+        <v>12.833095999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1001.960000</v>
+        <v>1001.96</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.992000</v>
+        <v>-124.992</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>46209.787764</v>
+        <v>46209.787764000001</v>
       </c>
       <c r="BE17" s="1">
         <v>12.836052</v>
       </c>
       <c r="BF17" s="1">
-        <v>1040.750000</v>
+        <v>1040.75</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.389000</v>
+        <v>-197.38900000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>46220.756821</v>
+        <v>46220.756821000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>12.839099</v>
+        <v>12.839098999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1107.530000</v>
+        <v>1107.53</v>
       </c>
       <c r="BL17" s="1">
-        <v>-314.955000</v>
+        <v>-314.95499999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>46232.361227</v>
+        <v>46232.361227000001</v>
       </c>
       <c r="BO17" s="1">
         <v>12.842323</v>
       </c>
       <c r="BP17" s="1">
-        <v>1216.000000</v>
+        <v>1216</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-500.452000</v>
+        <v>-500.452</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>46243.323271</v>
+        <v>46243.323271000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>12.845368</v>
+        <v>12.845368000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1337.970000</v>
+        <v>1337.97</v>
       </c>
       <c r="BV17" s="1">
-        <v>-703.978000</v>
+        <v>-703.97799999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>46254.185193</v>
+        <v>46254.185192999998</v>
       </c>
       <c r="BY17" s="1">
         <v>12.848385</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1474.940000</v>
+        <v>1474.94</v>
       </c>
       <c r="CA17" s="1">
-        <v>-921.578000</v>
+        <v>-921.57799999999997</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>46266.664504</v>
@@ -4576,273 +4992,273 @@
         <v>12.851851</v>
       </c>
       <c r="CE17" s="1">
-        <v>1833.770000</v>
+        <v>1833.77</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1439.330000</v>
+        <v>-1439.33</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>46093.512653</v>
+        <v>46093.512652999998</v>
       </c>
       <c r="B18" s="1">
         <v>12.803754</v>
       </c>
       <c r="C18" s="1">
-        <v>902.275000</v>
+        <v>902.27499999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-179.417000</v>
+        <v>-179.417</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>46104.242609</v>
+        <v>46104.242609000001</v>
       </c>
       <c r="G18" s="1">
-        <v>12.806734</v>
+        <v>12.806734000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>917.023000</v>
+        <v>917.02300000000002</v>
       </c>
       <c r="I18" s="1">
-        <v>-154.134000</v>
+        <v>-154.13399999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>46114.732465</v>
+        <v>46114.732465000001</v>
       </c>
       <c r="L18" s="1">
-        <v>12.809648</v>
+        <v>12.809647999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>939.505000</v>
+        <v>939.505</v>
       </c>
       <c r="N18" s="1">
-        <v>-113.220000</v>
+        <v>-113.22</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>46125.318084</v>
+        <v>46125.318083999999</v>
       </c>
       <c r="Q18" s="1">
         <v>12.812588</v>
       </c>
       <c r="R18" s="1">
-        <v>946.885000</v>
+        <v>946.88499999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-99.420200</v>
+        <v>-99.420199999999994</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>46135.787463</v>
+        <v>46135.787463000001</v>
       </c>
       <c r="V18" s="1">
-        <v>12.815497</v>
+        <v>12.815497000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>954.540000</v>
+        <v>954.54</v>
       </c>
       <c r="X18" s="1">
-        <v>-86.377500</v>
+        <v>-86.377499999999998</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>46146.259208</v>
+        <v>46146.259208000003</v>
       </c>
       <c r="AA18" s="1">
         <v>12.818405</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.515000</v>
+        <v>962.51499999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.050800</v>
+        <v>-76.050799999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>46156.722809</v>
+        <v>46156.722808999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>12.821312</v>
+        <v>12.821312000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.761000</v>
+        <v>967.76099999999997</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.452800</v>
+        <v>-74.452799999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>46166.957228</v>
+        <v>46166.957227999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>12.824155</v>
+        <v>12.824154999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.364000</v>
+        <v>975.36400000000003</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.520400</v>
+        <v>-79.520399999999995</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>46177.815192</v>
+        <v>46177.815192000002</v>
       </c>
       <c r="AP18" s="1">
         <v>12.827171</v>
       </c>
       <c r="AQ18" s="1">
-        <v>983.676000</v>
+        <v>983.67600000000004</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.341800</v>
+        <v>-91.341800000000006</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>46188.454869</v>
+        <v>46188.454869000001</v>
       </c>
       <c r="AU18" s="1">
         <v>12.830126</v>
       </c>
       <c r="AV18" s="1">
-        <v>993.644000</v>
+        <v>993.64400000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.244000</v>
+        <v>-109.244</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>46199.503755</v>
+        <v>46199.503754999998</v>
       </c>
       <c r="AZ18" s="1">
         <v>12.833195</v>
       </c>
       <c r="BA18" s="1">
-        <v>1001.950000</v>
+        <v>1001.95</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.978000</v>
+        <v>-124.97799999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>46210.147457</v>
+        <v>46210.147456999999</v>
       </c>
       <c r="BE18" s="1">
         <v>12.836152</v>
       </c>
       <c r="BF18" s="1">
-        <v>1040.740000</v>
+        <v>1040.74</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.386000</v>
+        <v>-197.386</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>46221.133750</v>
+        <v>46221.133750000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>12.839204</v>
+        <v>12.839204000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1107.530000</v>
+        <v>1107.53</v>
       </c>
       <c r="BL18" s="1">
-        <v>-314.918000</v>
+        <v>-314.91800000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>46233.178853</v>
+        <v>46233.178852999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>12.842550</v>
+        <v>12.842549999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1215.980000</v>
+        <v>1215.98</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-500.470000</v>
+        <v>-500.47</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>46243.738424</v>
+        <v>46243.738424000003</v>
       </c>
       <c r="BT18" s="1">
         <v>12.845483</v>
       </c>
       <c r="BU18" s="1">
-        <v>1337.890000</v>
+        <v>1337.89</v>
       </c>
       <c r="BV18" s="1">
-        <v>-704.020000</v>
+        <v>-704.02</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>46254.609752</v>
+        <v>46254.609751999997</v>
       </c>
       <c r="BY18" s="1">
-        <v>12.848503</v>
+        <v>12.848502999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1474.880000</v>
+        <v>1474.88</v>
       </c>
       <c r="CA18" s="1">
-        <v>-921.588000</v>
+        <v>-921.58799999999997</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>46267.215064</v>
+        <v>46267.215064000004</v>
       </c>
       <c r="CD18" s="1">
-        <v>12.852004</v>
+        <v>12.852004000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1834.820000</v>
+        <v>1834.82</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1438.200000</v>
+        <v>-1438.2</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>46094.163901</v>
       </c>
@@ -4850,148 +5266,148 @@
         <v>12.803934</v>
       </c>
       <c r="C19" s="1">
-        <v>902.149000</v>
+        <v>902.149</v>
       </c>
       <c r="D19" s="1">
-        <v>-179.404000</v>
+        <v>-179.404</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>46104.621551</v>
+        <v>46104.621550999997</v>
       </c>
       <c r="G19" s="1">
         <v>12.806839</v>
       </c>
       <c r="H19" s="1">
-        <v>917.293000</v>
+        <v>917.29300000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-153.868000</v>
+        <v>-153.86799999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>46115.114881</v>
+        <v>46115.114881000001</v>
       </c>
       <c r="L19" s="1">
         <v>12.809754</v>
       </c>
       <c r="M19" s="1">
-        <v>939.568000</v>
+        <v>939.56799999999998</v>
       </c>
       <c r="N19" s="1">
-        <v>-113.215000</v>
+        <v>-113.215</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>46125.663329</v>
+        <v>46125.663329000003</v>
       </c>
       <c r="Q19" s="1">
-        <v>12.812684</v>
+        <v>12.812684000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>946.880000</v>
+        <v>946.88</v>
       </c>
       <c r="S19" s="1">
-        <v>-99.427000</v>
+        <v>-99.427000000000007</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>46136.132853</v>
+        <v>46136.132853000003</v>
       </c>
       <c r="V19" s="1">
-        <v>12.815592</v>
+        <v>12.815592000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>954.426000</v>
+        <v>954.42600000000004</v>
       </c>
       <c r="X19" s="1">
-        <v>-86.394000</v>
+        <v>-86.394000000000005</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>46146.607863</v>
+        <v>46146.607862999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>12.818502</v>
+        <v>12.818502000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.581000</v>
+        <v>962.58100000000002</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.210200</v>
+        <v>-76.2102</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>46157.146361</v>
+        <v>46157.146360999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>12.821430</v>
+        <v>12.821429999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.780000</v>
+        <v>967.78</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.449000</v>
+        <v>-74.448999999999998</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>46167.238955</v>
+        <v>46167.238955000001</v>
       </c>
       <c r="AK19" s="1">
         <v>12.824233</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.376000</v>
+        <v>975.37599999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.535400</v>
+        <v>-79.535399999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>46178.111758</v>
+        <v>46178.111757999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>12.827253</v>
+        <v>12.827253000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>983.682000</v>
+        <v>983.68200000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.326500</v>
+        <v>-91.326499999999996</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>46188.818896</v>
+        <v>46188.818895999997</v>
       </c>
       <c r="AU19" s="1">
-        <v>12.830227</v>
+        <v>12.830227000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>993.630000</v>
+        <v>993.63</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.230000</v>
+        <v>-109.23</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>46199.861825</v>
@@ -5000,13 +5416,13 @@
         <v>12.833295</v>
       </c>
       <c r="BA19" s="1">
-        <v>1001.950000</v>
+        <v>1001.95</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.990000</v>
+        <v>-124.99</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>46210.513411</v>
@@ -5015,91 +5431,91 @@
         <v>12.836254</v>
       </c>
       <c r="BF19" s="1">
-        <v>1040.770000</v>
+        <v>1040.77</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.397000</v>
+        <v>-197.39699999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>46221.882740</v>
+        <v>46221.882740000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>12.839412</v>
+        <v>12.839411999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1107.510000</v>
+        <v>1107.51</v>
       </c>
       <c r="BL19" s="1">
-        <v>-314.933000</v>
+        <v>-314.93299999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>46233.596261</v>
+        <v>46233.596260999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>12.842666</v>
+        <v>12.842665999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1215.950000</v>
+        <v>1215.95</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-500.447000</v>
+        <v>-500.447</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>46244.154071</v>
+        <v>46244.154070999997</v>
       </c>
       <c r="BT19" s="1">
-        <v>12.845598</v>
+        <v>12.845598000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1337.830000</v>
+        <v>1337.83</v>
       </c>
       <c r="BV19" s="1">
-        <v>-704.157000</v>
+        <v>-704.15700000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>46255.032825</v>
+        <v>46255.032825000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>12.848620</v>
+        <v>12.84862</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1474.890000</v>
+        <v>1474.89</v>
       </c>
       <c r="CA19" s="1">
-        <v>-921.604000</v>
+        <v>-921.60400000000004</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>46268.064216</v>
+        <v>46268.064215999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>12.852240</v>
+        <v>12.85224</v>
       </c>
       <c r="CE19" s="1">
-        <v>1834.470000</v>
+        <v>1834.47</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1439.340000</v>
+        <v>-1439.34</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>46094.536365</v>
       </c>
@@ -5107,58 +5523,58 @@
         <v>12.804038</v>
       </c>
       <c r="C20" s="1">
-        <v>902.242000</v>
+        <v>902.24199999999996</v>
       </c>
       <c r="D20" s="1">
-        <v>-179.481000</v>
+        <v>-179.48099999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>46104.965742</v>
       </c>
       <c r="G20" s="1">
-        <v>12.806935</v>
+        <v>12.806934999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>917.246000</v>
+        <v>917.24599999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-153.366000</v>
+        <v>-153.36600000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>46115.465552</v>
+        <v>46115.465552000001</v>
       </c>
       <c r="L20" s="1">
-        <v>12.809852</v>
+        <v>12.809851999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>939.629000</v>
+        <v>939.62900000000002</v>
       </c>
       <c r="N20" s="1">
-        <v>-113.257000</v>
+        <v>-113.25700000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>46126.014962</v>
+        <v>46126.014962000001</v>
       </c>
       <c r="Q20" s="1">
         <v>12.812782</v>
       </c>
       <c r="R20" s="1">
-        <v>946.895000</v>
+        <v>946.89499999999998</v>
       </c>
       <c r="S20" s="1">
-        <v>-99.435700</v>
+        <v>-99.435699999999997</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>46136.554097</v>
@@ -5167,58 +5583,58 @@
         <v>12.815709</v>
       </c>
       <c r="W20" s="1">
-        <v>954.398000</v>
+        <v>954.39800000000002</v>
       </c>
       <c r="X20" s="1">
-        <v>-86.260100</v>
+        <v>-86.260099999999994</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>46147.039414</v>
+        <v>46147.039413999999</v>
       </c>
       <c r="AA20" s="1">
         <v>12.818622</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.626000</v>
+        <v>962.62599999999998</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.131300</v>
+        <v>-76.131299999999996</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>46157.424618</v>
+        <v>46157.424617999997</v>
       </c>
       <c r="AF20" s="1">
         <v>12.821507</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.800000</v>
+        <v>967.8</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.410300</v>
+        <v>-74.410300000000007</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>46167.585200</v>
+        <v>46167.585200000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>12.824329</v>
+        <v>12.824329000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.377000</v>
+        <v>975.37699999999995</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.538300</v>
+        <v>-79.538300000000007</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>46178.471889</v>
@@ -5227,118 +5643,118 @@
         <v>12.827353</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.668000</v>
+        <v>983.66800000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.340700</v>
+        <v>-91.340699999999998</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>46189.185474</v>
+        <v>46189.185473999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>12.830329</v>
+        <v>12.830329000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>993.642000</v>
+        <v>993.64200000000005</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.243000</v>
+        <v>-109.24299999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>46200.580033</v>
+        <v>46200.580032999998</v>
       </c>
       <c r="AZ20" s="1">
         <v>12.833494</v>
       </c>
       <c r="BA20" s="1">
-        <v>1001.960000</v>
+        <v>1001.96</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.989000</v>
+        <v>-124.989</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>46211.233634</v>
+        <v>46211.233633999997</v>
       </c>
       <c r="BE20" s="1">
         <v>12.836454</v>
       </c>
       <c r="BF20" s="1">
-        <v>1040.760000</v>
+        <v>1040.76</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.395000</v>
+        <v>-197.39500000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>46222.258675</v>
+        <v>46222.258674999997</v>
       </c>
       <c r="BJ20" s="1">
         <v>12.839516</v>
       </c>
       <c r="BK20" s="1">
-        <v>1107.520000</v>
+        <v>1107.52</v>
       </c>
       <c r="BL20" s="1">
-        <v>-314.947000</v>
+        <v>-314.947</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>46233.991543</v>
+        <v>46233.991542999996</v>
       </c>
       <c r="BO20" s="1">
         <v>12.842775</v>
       </c>
       <c r="BP20" s="1">
-        <v>1216.020000</v>
+        <v>1216.02</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-500.418000</v>
+        <v>-500.41800000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>46244.568264</v>
+        <v>46244.568264000001</v>
       </c>
       <c r="BT20" s="1">
         <v>12.845713</v>
       </c>
       <c r="BU20" s="1">
-        <v>1337.760000</v>
+        <v>1337.76</v>
       </c>
       <c r="BV20" s="1">
-        <v>-704.192000</v>
+        <v>-704.19200000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>46255.789224</v>
       </c>
       <c r="BY20" s="1">
-        <v>12.848830</v>
+        <v>12.84883</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1474.910000</v>
+        <v>1474.91</v>
       </c>
       <c r="CA20" s="1">
-        <v>-921.689000</v>
+        <v>-921.68899999999996</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>46268.294359</v>
@@ -5347,210 +5763,210 @@
         <v>12.852304</v>
       </c>
       <c r="CE20" s="1">
-        <v>1834.490000</v>
+        <v>1834.49</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1439.380000</v>
+        <v>-1439.38</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>46094.882111</v>
+        <v>46094.882110999999</v>
       </c>
       <c r="B21" s="1">
-        <v>12.804134</v>
+        <v>12.804133999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>902.318000</v>
+        <v>902.31799999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>-179.299000</v>
+        <v>-179.29900000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>46105.311952</v>
+        <v>46105.311951999996</v>
       </c>
       <c r="G21" s="1">
         <v>12.807031</v>
       </c>
       <c r="H21" s="1">
-        <v>917.247000</v>
+        <v>917.24699999999996</v>
       </c>
       <c r="I21" s="1">
-        <v>-154.048000</v>
+        <v>-154.048</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>46115.815728</v>
+        <v>46115.815728000001</v>
       </c>
       <c r="L21" s="1">
         <v>12.809949</v>
       </c>
       <c r="M21" s="1">
-        <v>939.484000</v>
+        <v>939.48400000000004</v>
       </c>
       <c r="N21" s="1">
-        <v>-113.122000</v>
+        <v>-113.122</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>46126.438370</v>
+        <v>46126.438370000003</v>
       </c>
       <c r="Q21" s="1">
-        <v>12.812900</v>
+        <v>12.812900000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>946.890000</v>
+        <v>946.89</v>
       </c>
       <c r="S21" s="1">
-        <v>-99.364300</v>
+        <v>-99.3643</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>46136.821302</v>
+        <v>46136.821301999997</v>
       </c>
       <c r="V21" s="1">
-        <v>12.815784</v>
+        <v>12.815784000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>954.346000</v>
+        <v>954.346</v>
       </c>
       <c r="X21" s="1">
-        <v>-86.434600</v>
+        <v>-86.434600000000003</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>46147.314662</v>
+        <v>46147.314661999997</v>
       </c>
       <c r="AA21" s="1">
-        <v>12.818699</v>
+        <v>12.818699000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.639000</v>
+        <v>962.63900000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.163600</v>
+        <v>-76.163600000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>46157.769834</v>
+        <v>46157.769833999999</v>
       </c>
       <c r="AF21" s="1">
         <v>12.821603</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.786000</v>
+        <v>967.78599999999994</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.441200</v>
+        <v>-74.441199999999995</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>46167.934709</v>
+        <v>46167.934709000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>12.824426</v>
+        <v>12.824426000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.384000</v>
+        <v>975.38400000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.545200</v>
+        <v>-79.545199999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>46178.831948</v>
+        <v>46178.831947999999</v>
       </c>
       <c r="AP21" s="1">
         <v>12.827453</v>
       </c>
       <c r="AQ21" s="1">
-        <v>983.651000</v>
+        <v>983.65099999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.338700</v>
+        <v>-91.338700000000003</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>46189.914559</v>
+        <v>46189.914558999997</v>
       </c>
       <c r="AU21" s="1">
         <v>12.830532</v>
       </c>
       <c r="AV21" s="1">
-        <v>993.637000</v>
+        <v>993.63699999999994</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.241000</v>
+        <v>-109.241</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>46200.937151</v>
+        <v>46200.937150999998</v>
       </c>
       <c r="AZ21" s="1">
         <v>12.833594</v>
       </c>
       <c r="BA21" s="1">
-        <v>1001.960000</v>
+        <v>1001.96</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.985000</v>
+        <v>-124.985</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>46211.597514</v>
+        <v>46211.597514000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>12.836555</v>
+        <v>12.836555000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1040.780000</v>
+        <v>1040.78</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.401000</v>
+        <v>-197.40100000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>46222.636628</v>
       </c>
       <c r="BJ21" s="1">
-        <v>12.839621</v>
+        <v>12.839620999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1107.540000</v>
+        <v>1107.54</v>
       </c>
       <c r="BL21" s="1">
-        <v>-314.939000</v>
+        <v>-314.93900000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>46234.720685</v>
@@ -5559,28 +5975,28 @@
         <v>12.842978</v>
       </c>
       <c r="BP21" s="1">
-        <v>1215.960000</v>
+        <v>1215.96</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-500.471000</v>
+        <v>-500.471</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>46245.315243</v>
+        <v>46245.315242999997</v>
       </c>
       <c r="BT21" s="1">
-        <v>12.845921</v>
+        <v>12.845921000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1337.810000</v>
+        <v>1337.81</v>
       </c>
       <c r="BV21" s="1">
-        <v>-704.254000</v>
+        <v>-704.25400000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>46255.912761</v>
@@ -5589,75 +6005,75 @@
         <v>12.848865</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1474.980000</v>
+        <v>1474.98</v>
       </c>
       <c r="CA21" s="1">
-        <v>-921.702000</v>
+        <v>-921.702</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>46268.811687</v>
+        <v>46268.811687000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>12.852448</v>
+        <v>12.852448000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1834.970000</v>
+        <v>1834.97</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1438.170000</v>
+        <v>-1438.17</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>46095.225308</v>
+        <v>46095.225308000001</v>
       </c>
       <c r="B22" s="1">
-        <v>12.804229</v>
+        <v>12.804228999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>902.322000</v>
+        <v>902.322</v>
       </c>
       <c r="D22" s="1">
-        <v>-179.342000</v>
+        <v>-179.34200000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>46105.737556</v>
       </c>
       <c r="G22" s="1">
-        <v>12.807149</v>
+        <v>12.807149000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>917.433000</v>
+        <v>917.43299999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-154.408000</v>
+        <v>-154.40799999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>46116.284448</v>
+        <v>46116.284447999999</v>
       </c>
       <c r="L22" s="1">
         <v>12.810079</v>
       </c>
       <c r="M22" s="1">
-        <v>939.556000</v>
+        <v>939.55600000000004</v>
       </c>
       <c r="N22" s="1">
-        <v>-113.359000</v>
+        <v>-113.35899999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>46126.711378</v>
@@ -5666,390 +6082,390 @@
         <v>12.812975</v>
       </c>
       <c r="R22" s="1">
-        <v>946.879000</v>
+        <v>946.87900000000002</v>
       </c>
       <c r="S22" s="1">
-        <v>-99.423100</v>
+        <v>-99.423100000000005</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>46137.165068</v>
+        <v>46137.165068000002</v>
       </c>
       <c r="V22" s="1">
-        <v>12.815879</v>
+        <v>12.815879000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>954.263000</v>
+        <v>954.26300000000003</v>
       </c>
       <c r="X22" s="1">
-        <v>-86.526300</v>
+        <v>-86.526300000000006</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>46147.662855</v>
+        <v>46147.662855000002</v>
       </c>
       <c r="AA22" s="1">
         <v>12.818795</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.605000</v>
+        <v>962.60500000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.131500</v>
+        <v>-76.131500000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>46158.114056</v>
+        <v>46158.114055999999</v>
       </c>
       <c r="AF22" s="1">
         <v>12.821698</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.769000</v>
+        <v>967.76900000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.448500</v>
+        <v>-74.448499999999996</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>46168.631721</v>
+        <v>46168.631720999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>12.824620</v>
+        <v>12.824619999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.398000</v>
+        <v>975.39800000000002</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.510400</v>
+        <v>-79.510400000000004</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>46179.553133</v>
+        <v>46179.553133000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>12.827654</v>
+        <v>12.827654000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.671000</v>
+        <v>983.67100000000005</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.339400</v>
+        <v>-91.339399999999998</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>46190.304910</v>
+        <v>46190.304909999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>12.830640</v>
+        <v>12.830640000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>993.633000</v>
+        <v>993.63300000000004</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.227000</v>
+        <v>-109.227</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>46201.299246</v>
+        <v>46201.299246000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>12.833694</v>
+        <v>12.833693999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1001.960000</v>
+        <v>1001.96</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.979000</v>
+        <v>-124.979</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>46211.954288</v>
+        <v>46211.954288000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>12.836654</v>
+        <v>12.836653999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1040.740000</v>
+        <v>1040.74</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.406000</v>
+        <v>-197.40600000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>46223.329075</v>
+        <v>46223.329075000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>12.839814</v>
+        <v>12.839814000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1107.510000</v>
+        <v>1107.51</v>
       </c>
       <c r="BL22" s="1">
-        <v>-314.960000</v>
+        <v>-314.95999999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>46234.836760</v>
+        <v>46234.836759999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>12.843010</v>
+        <v>12.84301</v>
       </c>
       <c r="BP22" s="1">
-        <v>1215.980000</v>
+        <v>1215.98</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-500.450000</v>
+        <v>-500.45</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>46245.429817</v>
+        <v>46245.429816999997</v>
       </c>
       <c r="BT22" s="1">
         <v>12.845953</v>
       </c>
       <c r="BU22" s="1">
-        <v>1337.820000</v>
+        <v>1337.82</v>
       </c>
       <c r="BV22" s="1">
-        <v>-704.378000</v>
+        <v>-704.37800000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>46256.348747</v>
+        <v>46256.348746999996</v>
       </c>
       <c r="BY22" s="1">
         <v>12.848986</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1474.880000</v>
+        <v>1474.88</v>
       </c>
       <c r="CA22" s="1">
-        <v>-921.598000</v>
+        <v>-921.59799999999996</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>46269.330998</v>
+        <v>46269.330997999998</v>
       </c>
       <c r="CD22" s="1">
         <v>12.852592</v>
       </c>
       <c r="CE22" s="1">
-        <v>1835.170000</v>
+        <v>1835.17</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1438.490000</v>
+        <v>-1438.49</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>46095.647899</v>
+        <v>46095.647899000003</v>
       </c>
       <c r="B23" s="1">
         <v>12.804347</v>
       </c>
       <c r="C23" s="1">
-        <v>902.148000</v>
+        <v>902.14800000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>-179.493000</v>
+        <v>-179.49299999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>46106.007837</v>
+        <v>46106.007836999997</v>
       </c>
       <c r="G23" s="1">
         <v>12.807224</v>
       </c>
       <c r="H23" s="1">
-        <v>917.162000</v>
+        <v>917.16200000000003</v>
       </c>
       <c r="I23" s="1">
-        <v>-153.927000</v>
+        <v>-153.92699999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>46116.517568</v>
+        <v>46116.517568000003</v>
       </c>
       <c r="L23" s="1">
-        <v>12.810144</v>
+        <v>12.810143999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>939.640000</v>
+        <v>939.64</v>
       </c>
       <c r="N23" s="1">
-        <v>-113.248000</v>
+        <v>-113.248</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>46127.060033</v>
+        <v>46127.060033000002</v>
       </c>
       <c r="Q23" s="1">
         <v>12.813072</v>
       </c>
       <c r="R23" s="1">
-        <v>946.872000</v>
+        <v>946.87199999999996</v>
       </c>
       <c r="S23" s="1">
-        <v>-99.438900</v>
+        <v>-99.438900000000004</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>46137.509747</v>
+        <v>46137.509746999996</v>
       </c>
       <c r="V23" s="1">
         <v>12.815975</v>
       </c>
       <c r="W23" s="1">
-        <v>954.383000</v>
+        <v>954.38300000000004</v>
       </c>
       <c r="X23" s="1">
-        <v>-86.320300</v>
+        <v>-86.320300000000003</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>46148.012074</v>
+        <v>46148.012073999998</v>
       </c>
       <c r="AA23" s="1">
         <v>12.818892</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.531000</v>
+        <v>962.53099999999995</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.117900</v>
+        <v>-76.117900000000006</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>46158.802140</v>
+        <v>46158.80214</v>
       </c>
       <c r="AF23" s="1">
-        <v>12.821889</v>
+        <v>12.821889000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.804000</v>
+        <v>967.80399999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.402300</v>
+        <v>-74.402299999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>46168.980905</v>
+        <v>46168.980904999997</v>
       </c>
       <c r="AK23" s="1">
         <v>12.824717</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.366000</v>
+        <v>975.36599999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.548000</v>
+        <v>-79.548000000000002</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>46179.940042</v>
+        <v>46179.940042000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>12.827761</v>
+        <v>12.827761000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.668000</v>
+        <v>983.66800000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.320800</v>
+        <v>-91.320800000000006</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>46190.670957</v>
+        <v>46190.670957000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>12.830742</v>
+        <v>12.830742000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>993.644000</v>
+        <v>993.64400000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.233000</v>
+        <v>-109.233</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>46201.966863</v>
+        <v>46201.966863000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>12.833880</v>
+        <v>12.833880000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1001.970000</v>
+        <v>1001.97</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.984000</v>
+        <v>-124.98399999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>46212.631857</v>
       </c>
       <c r="BE23" s="1">
-        <v>12.836842</v>
+        <v>12.836842000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1040.740000</v>
+        <v>1040.74</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.402000</v>
+        <v>-197.40199999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>46223.764034</v>
@@ -6058,210 +6474,210 @@
         <v>12.839934</v>
       </c>
       <c r="BK23" s="1">
-        <v>1107.540000</v>
+        <v>1107.54</v>
       </c>
       <c r="BL23" s="1">
-        <v>-314.959000</v>
+        <v>-314.959</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>46235.234018</v>
+        <v>46235.234018000003</v>
       </c>
       <c r="BO23" s="1">
         <v>12.843121</v>
       </c>
       <c r="BP23" s="1">
-        <v>1216.000000</v>
+        <v>1216</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-500.446000</v>
+        <v>-500.44600000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>46245.869236</v>
+        <v>46245.869235999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>12.846075</v>
+        <v>12.846075000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1337.760000</v>
+        <v>1337.76</v>
       </c>
       <c r="BV23" s="1">
-        <v>-704.550000</v>
+        <v>-704.55</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>46256.773781</v>
+        <v>46256.773781000004</v>
       </c>
       <c r="BY23" s="1">
-        <v>12.849104</v>
+        <v>12.849104000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1474.890000</v>
+        <v>1474.89</v>
       </c>
       <c r="CA23" s="1">
-        <v>-921.564000</v>
+        <v>-921.56399999999996</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>46269.895940</v>
+        <v>46269.895940000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>12.852749</v>
+        <v>12.852748999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1834.300000</v>
+        <v>1834.3</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1439.390000</v>
+        <v>-1439.39</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>46095.922683</v>
+        <v>46095.922682999997</v>
       </c>
       <c r="B24" s="1">
         <v>12.804423</v>
       </c>
       <c r="C24" s="1">
-        <v>902.198000</v>
+        <v>902.19799999999998</v>
       </c>
       <c r="D24" s="1">
-        <v>-179.411000</v>
+        <v>-179.411</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>46106.352556</v>
+        <v>46106.352555999998</v>
       </c>
       <c r="G24" s="1">
-        <v>12.807320</v>
+        <v>12.807320000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>917.453000</v>
+        <v>917.45299999999997</v>
       </c>
       <c r="I24" s="1">
-        <v>-154.289000</v>
+        <v>-154.28899999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>46116.862783</v>
+        <v>46116.862782999997</v>
       </c>
       <c r="L24" s="1">
-        <v>12.810240</v>
+        <v>12.81024</v>
       </c>
       <c r="M24" s="1">
-        <v>939.601000</v>
+        <v>939.601</v>
       </c>
       <c r="N24" s="1">
-        <v>-113.106000</v>
+        <v>-113.10599999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>46127.407765</v>
+        <v>46127.407765000004</v>
       </c>
       <c r="Q24" s="1">
         <v>12.813169</v>
       </c>
       <c r="R24" s="1">
-        <v>946.883000</v>
+        <v>946.88300000000004</v>
       </c>
       <c r="S24" s="1">
-        <v>-99.355900</v>
+        <v>-99.355900000000005</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>46138.195219</v>
+        <v>46138.195219000001</v>
       </c>
       <c r="V24" s="1">
         <v>12.816165</v>
       </c>
       <c r="W24" s="1">
-        <v>954.381000</v>
+        <v>954.38099999999997</v>
       </c>
       <c r="X24" s="1">
-        <v>-86.257600</v>
+        <v>-86.257599999999996</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>46148.708916</v>
+        <v>46148.708916000003</v>
       </c>
       <c r="AA24" s="1">
         <v>12.819086</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.620000</v>
+        <v>962.62</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.164700</v>
+        <v>-76.164699999999996</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>46159.140777</v>
+        <v>46159.140777000001</v>
       </c>
       <c r="AF24" s="1">
         <v>12.821984</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.769000</v>
+        <v>967.76900000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.408100</v>
+        <v>-74.408100000000005</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>46169.331609</v>
+        <v>46169.331609000001</v>
       </c>
       <c r="AK24" s="1">
         <v>12.824814</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.373000</v>
+        <v>975.37300000000005</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.557300</v>
+        <v>-79.557299999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>46180.299612</v>
+        <v>46180.299612000003</v>
       </c>
       <c r="AP24" s="1">
         <v>12.827861</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.673000</v>
+        <v>983.673</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.345800</v>
+        <v>-91.345799999999997</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>46191.350972</v>
@@ -6270,121 +6686,121 @@
         <v>12.830931</v>
       </c>
       <c r="AV24" s="1">
-        <v>993.623000</v>
+        <v>993.62300000000005</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.236000</v>
+        <v>-109.236</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>46202.405807</v>
+        <v>46202.405807000003</v>
       </c>
       <c r="AZ24" s="1">
         <v>12.834002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1001.970000</v>
+        <v>1001.97</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.970000</v>
+        <v>-124.97</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>46213.063981</v>
+        <v>46213.063980999999</v>
       </c>
       <c r="BE24" s="1">
         <v>12.836962</v>
       </c>
       <c r="BF24" s="1">
-        <v>1040.710000</v>
+        <v>1040.71</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.404000</v>
+        <v>-197.404</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>46224.137024</v>
+        <v>46224.137024000003</v>
       </c>
       <c r="BJ24" s="1">
         <v>12.840038</v>
       </c>
       <c r="BK24" s="1">
-        <v>1107.550000</v>
+        <v>1107.55</v>
       </c>
       <c r="BL24" s="1">
-        <v>-314.942000</v>
+        <v>-314.94200000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>46235.655121</v>
+        <v>46235.655121000003</v>
       </c>
       <c r="BO24" s="1">
-        <v>12.843238</v>
+        <v>12.843237999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1216.010000</v>
+        <v>1216.01</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-500.431000</v>
+        <v>-500.43099999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>46246.281939</v>
       </c>
       <c r="BT24" s="1">
-        <v>12.846189</v>
+        <v>12.846189000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1337.920000</v>
+        <v>1337.92</v>
       </c>
       <c r="BV24" s="1">
-        <v>-704.535000</v>
+        <v>-704.53499999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>46257.192902</v>
+        <v>46257.192902000003</v>
       </c>
       <c r="BY24" s="1">
-        <v>12.849220</v>
+        <v>12.849220000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1474.980000</v>
+        <v>1474.98</v>
       </c>
       <c r="CA24" s="1">
-        <v>-921.562000</v>
+        <v>-921.56200000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>46270.413302</v>
+        <v>46270.413302000001</v>
       </c>
       <c r="CD24" s="1">
         <v>12.852893</v>
       </c>
       <c r="CE24" s="1">
-        <v>1835.270000</v>
+        <v>1835.27</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1438.390000</v>
+        <v>-1438.39</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>46096.265948</v>
       </c>
@@ -6392,512 +6808,513 @@
         <v>12.804518</v>
       </c>
       <c r="C25" s="1">
-        <v>902.519000</v>
+        <v>902.51900000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-179.405000</v>
+        <v>-179.405</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>46106.695789</v>
+        <v>46106.695788999998</v>
       </c>
       <c r="G25" s="1">
-        <v>12.807415</v>
+        <v>12.807415000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>916.856000</v>
+        <v>916.85599999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-154.022000</v>
+        <v>-154.02199999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>46117.553214</v>
       </c>
       <c r="L25" s="1">
-        <v>12.810431</v>
+        <v>12.810430999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>939.510000</v>
+        <v>939.51</v>
       </c>
       <c r="N25" s="1">
-        <v>-113.225000</v>
+        <v>-113.22499999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>46128.104854</v>
+        <v>46128.104853999997</v>
       </c>
       <c r="Q25" s="1">
         <v>12.813362</v>
       </c>
       <c r="R25" s="1">
-        <v>946.900000</v>
+        <v>946.9</v>
       </c>
       <c r="S25" s="1">
-        <v>-99.427800</v>
+        <v>-99.427800000000005</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>46138.539477</v>
+        <v>46138.539476999998</v>
       </c>
       <c r="V25" s="1">
-        <v>12.816261</v>
+        <v>12.816261000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>954.478000</v>
+        <v>954.47799999999995</v>
       </c>
       <c r="X25" s="1">
-        <v>-86.444300</v>
+        <v>-86.444299999999998</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>46149.055658</v>
+        <v>46149.055657999997</v>
       </c>
       <c r="AA25" s="1">
         <v>12.819182</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.675000</v>
+        <v>962.67499999999995</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.169300</v>
+        <v>-76.169300000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>46159.485508</v>
+        <v>46159.485507999998</v>
       </c>
       <c r="AF25" s="1">
         <v>12.822079</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.761000</v>
+        <v>967.76099999999997</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.418500</v>
+        <v>-74.418499999999995</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>46169.990760</v>
+        <v>46169.990760000001</v>
       </c>
       <c r="AK25" s="1">
         <v>12.824997</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.370000</v>
+        <v>975.37</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.558700</v>
+        <v>-79.558700000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>46180.973179</v>
+        <v>46180.973179000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>12.828048</v>
+        <v>12.828048000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>983.658000</v>
+        <v>983.65800000000002</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.342800</v>
+        <v>-91.342799999999997</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>46191.766146</v>
+        <v>46191.766146000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>12.831046</v>
+        <v>12.831046000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>993.644000</v>
+        <v>993.64400000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.240000</v>
+        <v>-109.24</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>46202.764933</v>
+        <v>46202.764932999999</v>
       </c>
       <c r="AZ25" s="1">
         <v>12.834101</v>
       </c>
       <c r="BA25" s="1">
-        <v>1001.940000</v>
+        <v>1001.94</v>
       </c>
       <c r="BB25" s="1">
-        <v>-125.003000</v>
+        <v>-125.003</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>46213.426910</v>
+        <v>46213.426910000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>12.837063</v>
+        <v>12.837063000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1040.750000</v>
+        <v>1040.75</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.432000</v>
+        <v>-197.43199999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>46224.512043</v>
+        <v>46224.512043000002</v>
       </c>
       <c r="BJ25" s="1">
         <v>12.840142</v>
       </c>
       <c r="BK25" s="1">
-        <v>1107.530000</v>
+        <v>1107.53</v>
       </c>
       <c r="BL25" s="1">
-        <v>-314.941000</v>
+        <v>-314.94099999999997</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>46236.079729</v>
+        <v>46236.079728999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>12.843355</v>
+        <v>12.843355000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1216.010000</v>
+        <v>1216.01</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-500.433000</v>
+        <v>-500.43299999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>46246.714947</v>
       </c>
       <c r="BT25" s="1">
-        <v>12.846310</v>
+        <v>12.846310000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1337.980000</v>
+        <v>1337.98</v>
       </c>
       <c r="BV25" s="1">
-        <v>-704.545000</v>
+        <v>-704.54499999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>46257.618470</v>
+        <v>46257.618470000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>12.849338</v>
+        <v>12.849337999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1474.900000</v>
+        <v>1474.9</v>
       </c>
       <c r="CA25" s="1">
-        <v>-921.586000</v>
+        <v>-921.58600000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>46270.931092</v>
+        <v>46270.931091999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>12.853036</v>
+        <v>12.853035999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1835.150000</v>
+        <v>1835.15</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1438.670000</v>
+        <v>-1438.67</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>46096.606169</v>
+        <v>46096.606168999999</v>
       </c>
       <c r="B26" s="1">
         <v>12.804613</v>
       </c>
       <c r="C26" s="1">
-        <v>902.267000</v>
+        <v>902.26700000000005</v>
       </c>
       <c r="D26" s="1">
-        <v>-179.465000</v>
+        <v>-179.465</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>46107.381260</v>
+        <v>46107.381260000002</v>
       </c>
       <c r="G26" s="1">
         <v>12.807606</v>
       </c>
       <c r="H26" s="1">
-        <v>917.223000</v>
+        <v>917.22299999999996</v>
       </c>
       <c r="I26" s="1">
-        <v>-153.763000</v>
+        <v>-153.76300000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>46117.897469</v>
+        <v>46117.897469000003</v>
       </c>
       <c r="L26" s="1">
         <v>12.810527</v>
       </c>
       <c r="M26" s="1">
-        <v>939.535000</v>
+        <v>939.53499999999997</v>
       </c>
       <c r="N26" s="1">
-        <v>-113.259000</v>
+        <v>-113.259</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>46128.455802</v>
+        <v>46128.455801999997</v>
       </c>
       <c r="Q26" s="1">
-        <v>12.813460</v>
+        <v>12.813459999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>946.911000</v>
+        <v>946.91099999999994</v>
       </c>
       <c r="S26" s="1">
-        <v>-99.450700</v>
+        <v>-99.450699999999998</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>46138.887638</v>
       </c>
       <c r="V26" s="1">
-        <v>12.816358</v>
+        <v>12.816357999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>954.462000</v>
+        <v>954.46199999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-86.375800</v>
+        <v>-86.375799999999998</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>46149.719543</v>
+        <v>46149.719542999999</v>
       </c>
       <c r="AA26" s="1">
         <v>12.819367</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.615000</v>
+        <v>962.61500000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.172800</v>
+        <v>-76.172799999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>46160.130790</v>
+        <v>46160.130790000003</v>
       </c>
       <c r="AF26" s="1">
-        <v>12.822259</v>
+        <v>12.822259000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.781000</v>
+        <v>967.78099999999995</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.392700</v>
+        <v>-74.392700000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>46170.377175</v>
+        <v>46170.377175000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>12.825105</v>
+        <v>12.825105000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.378000</v>
+        <v>975.37800000000004</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.538800</v>
+        <v>-79.538799999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>46181.398745</v>
+        <v>46181.398744999999</v>
       </c>
       <c r="AP26" s="1">
         <v>12.828166</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.653000</v>
+        <v>983.65300000000002</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.347300</v>
+        <v>-91.347300000000004</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>46192.128699</v>
+        <v>46192.128699000001</v>
       </c>
       <c r="AU26" s="1">
         <v>12.831147</v>
       </c>
       <c r="AV26" s="1">
-        <v>993.627000</v>
+        <v>993.62699999999995</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.248000</v>
+        <v>-109.248</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>46203.122554</v>
+        <v>46203.122554000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>12.834201</v>
       </c>
       <c r="BA26" s="1">
-        <v>1001.940000</v>
+        <v>1001.94</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.996000</v>
+        <v>-124.996</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>46213.787502</v>
+        <v>46213.787501999999</v>
       </c>
       <c r="BE26" s="1">
         <v>12.837163</v>
       </c>
       <c r="BF26" s="1">
-        <v>1040.750000</v>
+        <v>1040.75</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.394000</v>
+        <v>-197.39400000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>46224.944511</v>
+        <v>46224.944511000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>12.840262</v>
+        <v>12.840261999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1107.520000</v>
+        <v>1107.52</v>
       </c>
       <c r="BL26" s="1">
-        <v>-314.943000</v>
+        <v>-314.94299999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>46236.473550</v>
+        <v>46236.473550000002</v>
       </c>
       <c r="BO26" s="1">
         <v>12.843465</v>
       </c>
       <c r="BP26" s="1">
-        <v>1215.980000</v>
+        <v>1215.98</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-500.426000</v>
+        <v>-500.42599999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>46247.146931</v>
+        <v>46247.146931000003</v>
       </c>
       <c r="BT26" s="1">
-        <v>12.846430</v>
+        <v>12.84643</v>
       </c>
       <c r="BU26" s="1">
-        <v>1338.080000</v>
+        <v>1338.08</v>
       </c>
       <c r="BV26" s="1">
-        <v>-704.530000</v>
+        <v>-704.53</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>46258.035604</v>
+        <v>46258.035603999997</v>
       </c>
       <c r="BY26" s="1">
         <v>12.849454</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1474.920000</v>
+        <v>1474.92</v>
       </c>
       <c r="CA26" s="1">
-        <v>-921.554000</v>
+        <v>-921.55399999999997</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>46271.485620</v>
+        <v>46271.485619999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>12.853190</v>
+        <v>12.85319</v>
       </c>
       <c r="CE26" s="1">
-        <v>1834.570000</v>
+        <v>1834.57</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1439.420000</v>
+        <v>-1439.42</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>